--- a/data/trans_orig/LAWTONB_2R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>48215</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40264</v>
+        <v>41147</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53730</v>
+        <v>53863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8064912695833846</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6734913894226856</v>
+        <v>0.6882638477435972</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8987319863135763</v>
+        <v>0.9009570795134341</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -765,19 +765,19 @@
         <v>16342</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11489</v>
+        <v>10902</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21946</v>
+        <v>21486</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5500767995521263</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3867107221185476</v>
+        <v>0.3669612874017422</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7387128060516212</v>
+        <v>0.7232261936194976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -786,19 +786,19 @@
         <v>64558</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54927</v>
+        <v>54701</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72389</v>
+        <v>72164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7213703213361244</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6137629704106592</v>
+        <v>0.6112316797019302</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8088758693408922</v>
+        <v>0.8063688403112604</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>7900</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3313</v>
+        <v>3321</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16338</v>
+        <v>14769</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.132135110770167</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05541792322906607</v>
+        <v>0.05555002587534578</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2732813054788344</v>
+        <v>0.247040448640592</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -836,19 +836,19 @@
         <v>7349</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3152</v>
+        <v>3242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12482</v>
+        <v>13042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2473496216571583</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1061011859650598</v>
+        <v>0.1091162290973056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4201355133797153</v>
+        <v>0.4389915342307691</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -857,19 +857,19 @@
         <v>15248</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8777</v>
+        <v>8749</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23992</v>
+        <v>24125</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1703824390794836</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09807563679881953</v>
+        <v>0.09776667464211228</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2680849410531637</v>
+        <v>0.2695788402580264</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5798</v>
+        <v>6022</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02967254617517586</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09698578939656009</v>
+        <v>0.1007279727984582</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -907,19 +907,19 @@
         <v>4265</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9540</v>
+        <v>10356</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1435729154548525</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04242622639622769</v>
+        <v>0.04223565206158648</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3210992229003703</v>
+        <v>0.3485922300613102</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -928,19 +928,19 @@
         <v>6039</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2699</v>
+        <v>2476</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12323</v>
+        <v>12516</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06748362383244401</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03015725646020776</v>
+        <v>0.02766681264584598</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1376970367161871</v>
+        <v>0.1398551546421434</v>
       </c>
     </row>
     <row r="7">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5377</v>
+        <v>5864</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05900066333586289</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1810005084372062</v>
+        <v>0.1973666821380067</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6152</v>
+        <v>6316</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01958622853754614</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06874587453804719</v>
+        <v>0.07057700218729095</v>
       </c>
     </row>
     <row r="8">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5879</v>
+        <v>6121</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03170107347127261</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09833683235350324</v>
+        <v>0.1023808528552463</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6734</v>
+        <v>6632</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02117738721440172</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07524644817421101</v>
+        <v>0.07410247050111218</v>
       </c>
     </row>
     <row r="9">
@@ -1158,19 +1158,19 @@
         <v>39197</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31825</v>
+        <v>31148</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44231</v>
+        <v>44453</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7711329444513287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.626104213705031</v>
+        <v>0.6127790988501457</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8701736108159512</v>
+        <v>0.8745388764655152</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1179,19 +1179,19 @@
         <v>10433</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6028</v>
+        <v>6225</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13714</v>
+        <v>13676</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.660933028999096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3818832376373467</v>
+        <v>0.3943240705321627</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8687611941509598</v>
+        <v>0.8663120910543757</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1200,19 +1200,19 @@
         <v>49630</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41850</v>
+        <v>41691</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56372</v>
+        <v>55949</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7450192007279913</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6282257212859361</v>
+        <v>0.6258418050903248</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8462219076174521</v>
+        <v>0.8398748714256323</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>5493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2510</v>
+        <v>2022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11268</v>
+        <v>11248</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1080571894752505</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04937540628907888</v>
+        <v>0.03978561842221429</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2216884844413504</v>
+        <v>0.2212900007749204</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5838</v>
+        <v>6355</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1333392273752403</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3698069350520423</v>
+        <v>0.4025564246207589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1271,19 +1271,19 @@
         <v>7597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3596</v>
+        <v>3727</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14694</v>
+        <v>14065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1140481982325141</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05398229660290178</v>
+        <v>0.05594048422821416</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2205768364639023</v>
+        <v>0.211137985137217</v>
       </c>
     </row>
     <row r="12">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10334</v>
+        <v>10948</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06708621578663913</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2033102303578213</v>
+        <v>0.2153894792924497</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1321,19 +1321,19 @@
         <v>3248</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>950</v>
+        <v>905</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7727</v>
+        <v>7632</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2057277436256637</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06018966976472823</v>
+        <v>0.05735750139410262</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4894641585848244</v>
+        <v>0.4834806897236717</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1342,19 +1342,19 @@
         <v>6658</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2589</v>
+        <v>2105</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14704</v>
+        <v>13408</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09993968316492904</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03886199074056133</v>
+        <v>0.03159720003347126</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2207250235800924</v>
+        <v>0.2012748642436241</v>
       </c>
     </row>
     <row r="13">
@@ -1371,19 +1371,19 @@
         <v>2731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7367</v>
+        <v>7094</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05372365028678158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01598151299079396</v>
+        <v>0.01566393812700057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.144935090568805</v>
+        <v>0.139560308194409</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1405,19 +1405,19 @@
         <v>2731</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7126</v>
+        <v>8006</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04099291787456546</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01207607298046101</v>
+        <v>0.01219911693368577</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.106966937684562</v>
+        <v>0.120180298093371</v>
       </c>
     </row>
     <row r="14">
@@ -1556,19 +1556,19 @@
         <v>52889</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44537</v>
+        <v>44968</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59626</v>
+        <v>58889</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7370821735231682</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6206971003029944</v>
+        <v>0.6267000779066855</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8309848851371167</v>
+        <v>0.820708242607968</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1577,19 +1577,19 @@
         <v>15955</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10834</v>
+        <v>10732</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20305</v>
+        <v>20137</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6572564438745144</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4462870508011768</v>
+        <v>0.4420978324563309</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8364599497388244</v>
+        <v>0.8295512909367304</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -1598,19 +1598,19 @@
         <v>68844</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60159</v>
+        <v>59713</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77714</v>
+        <v>76510</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7169030138802922</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6264588747590236</v>
+        <v>0.6218188865663792</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8092630877011198</v>
+        <v>0.7967305476908834</v>
       </c>
     </row>
     <row r="17">
@@ -1627,19 +1627,19 @@
         <v>11012</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5721</v>
+        <v>6247</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18376</v>
+        <v>18304</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1534732635633743</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07972509861108643</v>
+        <v>0.08705765608779317</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2560958356353426</v>
+        <v>0.2550989889054563</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1648,19 +1648,19 @@
         <v>3847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1122</v>
+        <v>1051</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7980</v>
+        <v>8222</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1584860744078725</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04622161396049601</v>
+        <v>0.0433001277218816</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3287274458822737</v>
+        <v>0.3386864576092725</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1669,19 +1669,19 @@
         <v>14860</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8836</v>
+        <v>8786</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23293</v>
+        <v>23509</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1547404528610593</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09201434254864442</v>
+        <v>0.09148813288269891</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2425647624347594</v>
+        <v>0.2448064595313303</v>
       </c>
     </row>
     <row r="18">
@@ -1698,19 +1698,19 @@
         <v>2594</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7095</v>
+        <v>6890</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03614544348174597</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01162820412831888</v>
+        <v>0.01151742889297639</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09888248955310219</v>
+        <v>0.09602229040733065</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6941</v>
+        <v>6801</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09457228762057782</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2859422657058511</v>
+        <v>0.2801594327365749</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1740,19 +1740,19 @@
         <v>4889</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1720</v>
+        <v>1919</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10817</v>
+        <v>10485</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05091517525239448</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01790833361953371</v>
+        <v>0.01998111283490978</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1126370694570837</v>
+        <v>0.1091891072563477</v>
       </c>
     </row>
     <row r="19">
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4440</v>
+        <v>4332</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01209775271960983</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06187611891582793</v>
+        <v>0.06037601651557447</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5241</v>
+        <v>5186</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04267926274394805</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2158938440050607</v>
+        <v>0.2136164788849115</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6266</v>
+        <v>6097</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01982845778948501</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06525375641992236</v>
+        <v>0.06349344980425815</v>
       </c>
     </row>
     <row r="20">
@@ -1840,19 +1840,19 @@
         <v>4391</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1666</v>
+        <v>1702</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8907</v>
+        <v>9921</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06120136671210178</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02322276735328419</v>
+        <v>0.02371735398633603</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1241325166105059</v>
+        <v>0.1382627776422206</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5412</v>
+        <v>5430</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04700593135308719</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2229529396137269</v>
+        <v>0.2237063266787716</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1882,19 +1882,19 @@
         <v>5533</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2561</v>
+        <v>1803</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12216</v>
+        <v>11328</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05761290021676906</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02666463702197952</v>
+        <v>0.01877887486763996</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1272095587566305</v>
+        <v>0.1179614028832462</v>
       </c>
     </row>
     <row r="21">
@@ -1986,19 +1986,19 @@
         <v>187760</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>172723</v>
+        <v>172343</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>200482</v>
+        <v>200062</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7219523109611962</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6641349461204956</v>
+        <v>0.6626743113719008</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7708726797608113</v>
+        <v>0.76925461140414</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -2007,19 +2007,19 @@
         <v>61373</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52384</v>
+        <v>52286</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68904</v>
+        <v>68483</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7157064282439602</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6108752819514719</v>
+        <v>0.6097382608910732</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8035243368947126</v>
+        <v>0.7986120985503222</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>263</v>
@@ -2028,19 +2028,19 @@
         <v>249133</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>233100</v>
+        <v>234731</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>266168</v>
+        <v>265700</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.720403554062058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6740427141361606</v>
+        <v>0.6787574586962414</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7696618347948658</v>
+        <v>0.7683108600267703</v>
       </c>
     </row>
     <row r="23">
@@ -2057,19 +2057,19 @@
         <v>32914</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23515</v>
+        <v>22963</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>44521</v>
+        <v>44184</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1265574607327979</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09041918957214126</v>
+        <v>0.08829457949639416</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1711858932661928</v>
+        <v>0.1698923435969711</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2078,19 +2078,19 @@
         <v>11475</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6501</v>
+        <v>6529</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18982</v>
+        <v>18076</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1338185666602283</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07580643655179829</v>
+        <v>0.0761361257480092</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2213588789950611</v>
+        <v>0.2107983633872451</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>47</v>
@@ -2099,19 +2099,19 @@
         <v>44389</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33142</v>
+        <v>33530</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56327</v>
+        <v>55943</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1283579569011694</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09583587027136625</v>
+        <v>0.09695576353096387</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1628785679634753</v>
+        <v>0.1617686811796424</v>
       </c>
     </row>
     <row r="24">
@@ -2128,19 +2128,19 @@
         <v>16341</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9891</v>
+        <v>10653</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25505</v>
+        <v>24875</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06283200322817981</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03803012623435527</v>
+        <v>0.04096103329605222</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09806924450083566</v>
+        <v>0.09564628213232892</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2149,19 +2149,19 @@
         <v>7556</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3396</v>
+        <v>3234</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14661</v>
+        <v>14881</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08811751835262402</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03959686177089888</v>
+        <v>0.03771664262311977</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1709733914943464</v>
+        <v>0.1735378835933003</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -2170,19 +2170,19 @@
         <v>23897</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16467</v>
+        <v>15951</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35812</v>
+        <v>33812</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06910191218583228</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04761572218466986</v>
+        <v>0.04612452783999388</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1035558086645353</v>
+        <v>0.09777233200861732</v>
       </c>
     </row>
     <row r="25">
@@ -2199,19 +2199,19 @@
         <v>14905</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8997</v>
+        <v>8893</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24075</v>
+        <v>22668</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05731070621860886</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03459598299085545</v>
+        <v>0.03419536120117154</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09256981098645023</v>
+        <v>0.08716152760862916</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2220,19 +2220,19 @@
         <v>3127</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8283</v>
+        <v>8730</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03646913856148967</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009973694300915813</v>
+        <v>0.009925722070172682</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09659111218739927</v>
+        <v>0.1018035905870533</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -2241,19 +2241,19 @@
         <v>18032</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11146</v>
+        <v>11041</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27610</v>
+        <v>27755</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05214273826930002</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03222906305577895</v>
+        <v>0.03192551021246049</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07983735094166823</v>
+        <v>0.08025688340434342</v>
       </c>
     </row>
     <row r="26">
@@ -2270,19 +2270,19 @@
         <v>8153</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4303</v>
+        <v>3617</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14551</v>
+        <v>14670</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03134751885921721</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0165462487598916</v>
+        <v>0.01390763098197208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05594799791389012</v>
+        <v>0.05640768788285209</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7738</v>
+        <v>7816</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02588834818169769</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09024209688491566</v>
+        <v>0.09114696054802497</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2312,19 +2312,19 @@
         <v>10373</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5443</v>
+        <v>5051</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18048</v>
+        <v>17029</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02999383858164028</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01573869240924784</v>
+        <v>0.0146068434523587</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05218938696700482</v>
+        <v>0.04924308836260432</v>
       </c>
     </row>
     <row r="27">
@@ -2416,19 +2416,19 @@
         <v>38551</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31270</v>
+        <v>32131</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44129</v>
+        <v>44620</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6950486796893333</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5637831366464822</v>
+        <v>0.5793020697592286</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7956257663188371</v>
+        <v>0.8044789434511088</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>59</v>
@@ -2437,19 +2437,19 @@
         <v>59836</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>49209</v>
+        <v>49318</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>68793</v>
+        <v>69453</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6216716349728223</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5112632340530309</v>
+        <v>0.5123992144675703</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7147298729384952</v>
+        <v>0.7215873885785179</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>100</v>
@@ -2458,19 +2458,19 @@
         <v>98387</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>86610</v>
+        <v>86379</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>110815</v>
+        <v>110387</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6484974396931393</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5708703380299742</v>
+        <v>0.5693530571049744</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7304173852041618</v>
+        <v>0.7275970056952552</v>
       </c>
     </row>
     <row r="29">
@@ -2487,19 +2487,19 @@
         <v>10237</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5538</v>
+        <v>5743</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16333</v>
+        <v>16933</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1845626446813696</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09985389519172062</v>
+        <v>0.1035365229958796</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2944703939820423</v>
+        <v>0.305282894659277</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2508,19 +2508,19 @@
         <v>11489</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5615</v>
+        <v>5820</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18736</v>
+        <v>19123</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1193624476642539</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05833251367480946</v>
+        <v>0.06046341380060268</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1946609194913886</v>
+        <v>0.1986814923524913</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -2529,19 +2529,19 @@
         <v>21725</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13965</v>
+        <v>14513</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>31295</v>
+        <v>31767</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1431988907870958</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09204472920603654</v>
+        <v>0.09565730299353836</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2062724546276635</v>
+        <v>0.2093876707602365</v>
       </c>
     </row>
     <row r="30">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8301</v>
+        <v>6309</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03768899330202117</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1496621081185268</v>
+        <v>0.1137408179552017</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2579,19 +2579,19 @@
         <v>11222</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5810</v>
+        <v>5841</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19599</v>
+        <v>18647</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1165953264578596</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06036293706455061</v>
+        <v>0.06068370846946186</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2036243469973858</v>
+        <v>0.1937365571885882</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -2600,19 +2600,19 @@
         <v>13313</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7529</v>
+        <v>6709</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21816</v>
+        <v>21689</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08774807739498608</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04962518867395924</v>
+        <v>0.04422371483791918</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1437968739332862</v>
+        <v>0.142957681552022</v>
       </c>
     </row>
     <row r="31">
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6078</v>
+        <v>5231</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03203130117717177</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1095908790985092</v>
+        <v>0.09431260724706071</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2650,19 +2650,19 @@
         <v>5270</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2028</v>
+        <v>2035</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11751</v>
+        <v>11509</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05475249117386292</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02106661614662623</v>
+        <v>0.02114238259063153</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1220886855311825</v>
+        <v>0.1195720386363309</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -2671,19 +2671,19 @@
         <v>7047</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2934</v>
+        <v>3017</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13082</v>
+        <v>13949</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04644588509263835</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01934001968973278</v>
+        <v>0.01988794212780397</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08622926795649928</v>
+        <v>0.09194008141820401</v>
       </c>
     </row>
     <row r="32">
@@ -2700,19 +2700,19 @@
         <v>2810</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8115</v>
+        <v>7014</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05066838115010426</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01496526331235695</v>
+        <v>0.01511955641549936</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1463011008922845</v>
+        <v>0.1264602667889417</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2721,19 +2721,19 @@
         <v>8433</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3575</v>
+        <v>3598</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15308</v>
+        <v>16001</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08761809973120134</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03714573427686521</v>
+        <v>0.03737935704995023</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1590489868800264</v>
+        <v>0.1662401477346342</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>11</v>
@@ -2742,19 +2742,19 @@
         <v>11244</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5940</v>
+        <v>5621</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19837</v>
+        <v>19005</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07410970703214047</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03915227093491617</v>
+        <v>0.03705097027299076</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1307544383008262</v>
+        <v>0.1252646808249165</v>
       </c>
     </row>
     <row r="33">
@@ -2867,19 +2867,19 @@
         <v>280158</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>260027</v>
+        <v>260054</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>298012</v>
+        <v>300081</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.659086786554112</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6117272090009844</v>
+        <v>0.6117914339192614</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7010896365112956</v>
+        <v>0.705955715674383</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>281</v>
@@ -2888,19 +2888,19 @@
         <v>282889</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>264111</v>
+        <v>260121</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>302219</v>
+        <v>302978</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6598524440268283</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6160529435212124</v>
+        <v>0.6067461061857266</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7049411738240434</v>
+        <v>0.7067127204270223</v>
       </c>
     </row>
     <row r="35">
@@ -2930,19 +2930,19 @@
         <v>70635</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>54942</v>
+        <v>55806</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>87137</v>
+        <v>87164</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1661727813205068</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1292548506467446</v>
+        <v>0.1312862923270185</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.204994954214656</v>
+        <v>0.2050587039505583</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>66</v>
@@ -2951,19 +2951,19 @@
         <v>70635</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>55128</v>
+        <v>56066</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>85146</v>
+        <v>86582</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1647599597303276</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1285888771413038</v>
+        <v>0.1307759942528144</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1986068003021317</v>
+        <v>0.2019569331891255</v>
       </c>
     </row>
     <row r="36">
@@ -3001,19 +3001,19 @@
         <v>35564</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>25483</v>
+        <v>25237</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>48050</v>
+        <v>49592</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0836653946037004</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05995010194422592</v>
+        <v>0.05937204224606638</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.113040717742452</v>
+        <v>0.1166679194438086</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>34</v>
@@ -3022,19 +3022,19 @@
         <v>36478</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>25499</v>
+        <v>26361</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>49127</v>
+        <v>48719</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08508688998236322</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05947852641421439</v>
+        <v>0.06148950009167142</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1145921128004748</v>
+        <v>0.1136388619763037</v>
       </c>
     </row>
     <row r="37">
@@ -3064,19 +3064,19 @@
         <v>14339</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8492</v>
+        <v>8208</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>25207</v>
+        <v>24067</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03373331471771165</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0199777688978035</v>
+        <v>0.01931042694496535</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0593018229559311</v>
+        <v>0.05661924847830079</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>13</v>
@@ -3085,19 +3085,19 @@
         <v>14339</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>8318</v>
+        <v>7942</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>23947</v>
+        <v>22897</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03344650989346327</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01940246413440456</v>
+        <v>0.01852483081292604</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05585854214392489</v>
+        <v>0.05340813341506683</v>
       </c>
     </row>
     <row r="38">
@@ -3127,19 +3127,19 @@
         <v>24374</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>15313</v>
+        <v>15519</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>35423</v>
+        <v>35169</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05734172280396913</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03602575854616467</v>
+        <v>0.03650829461850167</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.08333446478966466</v>
+        <v>0.08273609057916866</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>22</v>
@@ -3148,19 +3148,19 @@
         <v>24374</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15488</v>
+        <v>16373</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>35230</v>
+        <v>35660</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05685419636701756</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0361274818784199</v>
+        <v>0.03819137439158565</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08217539514022354</v>
+        <v>0.08317812256858884</v>
       </c>
     </row>
     <row r="39">
@@ -3252,19 +3252,19 @@
         <v>369342</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>350242</v>
+        <v>348785</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>388351</v>
+        <v>387876</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.7364004058225172</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6983183640679591</v>
+        <v>0.6954138091026372</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.774301016414903</v>
+        <v>0.7733527033904068</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>444</v>
@@ -3273,19 +3273,19 @@
         <v>444098</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>420828</v>
+        <v>416872</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>469270</v>
+        <v>467565</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6561322295180358</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6217516947041667</v>
+        <v>0.6159066670415385</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6933228076186331</v>
+        <v>0.6908044839824696</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>827</v>
@@ -3294,19 +3294,19 @@
         <v>813440</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>781628</v>
+        <v>780911</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>846338</v>
+        <v>841710</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6902961967925738</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6632996421071296</v>
+        <v>0.6626917779157604</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7182140545737471</v>
+        <v>0.7142866361536748</v>
       </c>
     </row>
     <row r="41">
@@ -3323,19 +3323,19 @@
         <v>67555</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>53699</v>
+        <v>53278</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>84218</v>
+        <v>83997</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1346929993325715</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1070662500257156</v>
+        <v>0.1062257951351538</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1679146026427769</v>
+        <v>0.1674735481661603</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>101</v>
@@ -3344,19 +3344,19 @@
         <v>106900</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>88215</v>
+        <v>87911</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>127470</v>
+        <v>126236</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1579386664102227</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.130333363259295</v>
+        <v>0.1298836146458097</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1883310446480567</v>
+        <v>0.1865072891104948</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>171</v>
@@ -3365,19 +3365,19 @@
         <v>174455</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>150509</v>
+        <v>151853</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>198128</v>
+        <v>198672</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.148044780117065</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1277237972166459</v>
+        <v>0.1288648067030201</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1681338325135362</v>
+        <v>0.1685957024406168</v>
       </c>
     </row>
     <row r="42">
@@ -3394,19 +3394,19 @@
         <v>27123</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>18477</v>
+        <v>18252</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>38679</v>
+        <v>37743</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.05407865228660925</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03684018991619124</v>
+        <v>0.03639070338558627</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07711967731114612</v>
+        <v>0.0752515801050099</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>59</v>
@@ -3415,19 +3415,19 @@
         <v>64151</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>47790</v>
+        <v>50584</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>80164</v>
+        <v>81615</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09477975489245094</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07060731393166932</v>
+        <v>0.07473497500389752</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1184376730029142</v>
+        <v>0.1205820363180387</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>87</v>
@@ -3436,19 +3436,19 @@
         <v>91274</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>73876</v>
+        <v>73691</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>113213</v>
+        <v>112098</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.07745643696644051</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06269215751853882</v>
+        <v>0.06253535779651216</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09607421665855043</v>
+        <v>0.09512811356662516</v>
       </c>
     </row>
     <row r="43">
@@ -3465,19 +3465,19 @@
         <v>20280</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>13342</v>
+        <v>13136</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>29821</v>
+        <v>29603</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.0404353574167681</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02660097359173233</v>
+        <v>0.02618986962246247</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05945844074897062</v>
+        <v>0.05902289157849267</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>24</v>
@@ -3486,19 +3486,19 @@
         <v>25525</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>16297</v>
+        <v>16925</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>36753</v>
+        <v>37917</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03771210716283247</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02407823626761579</v>
+        <v>0.02500646297350305</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05430060645900752</v>
+        <v>0.05602032283088268</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>46</v>
@@ -3507,19 +3507,19 @@
         <v>45806</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>33820</v>
+        <v>33248</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>60341</v>
+        <v>59611</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03887118460596406</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02869980475633269</v>
+        <v>0.02821460142124425</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05120594338611561</v>
+        <v>0.05058682101860493</v>
       </c>
     </row>
     <row r="44">
@@ -3536,19 +3536,19 @@
         <v>17250</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11359</v>
+        <v>10850</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>26759</v>
+        <v>26172</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03439258514153397</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0226468924083099</v>
+        <v>0.02163362863873011</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05335274154358825</v>
+        <v>0.05218117715700848</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>33</v>
@@ -3557,19 +3557,19 @@
         <v>36169</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>25695</v>
+        <v>25103</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>49947</v>
+        <v>50238</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.05343724201645794</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03796362461719299</v>
+        <v>0.03708819728471081</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.07379356181371877</v>
+        <v>0.07422377144523715</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>52</v>
@@ -3578,19 +3578,19 @@
         <v>53418</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>41478</v>
+        <v>40250</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>69666</v>
+        <v>68416</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.04533140151795665</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03519863060381564</v>
+        <v>0.03415656382991696</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.05911930616950364</v>
+        <v>0.05805890276640661</v>
       </c>
     </row>
     <row r="45">
@@ -3924,19 +3924,19 @@
         <v>35518</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28383</v>
+        <v>27368</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39957</v>
+        <v>39829</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8087279200574424</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6462836273566299</v>
+        <v>0.6231640274180973</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9097990834280242</v>
+        <v>0.9068875039779197</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -3945,19 +3945,19 @@
         <v>22028</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16454</v>
+        <v>16931</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24268</v>
+        <v>24282</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8710512150556433</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6506516592210151</v>
+        <v>0.669519255198077</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.959613411003704</v>
+        <v>0.9601777032494719</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -3966,19 +3966,19 @@
         <v>57546</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49035</v>
+        <v>49002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63069</v>
+        <v>63483</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8315016798525162</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7085209820261584</v>
+        <v>0.7080562381659815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9113090886098658</v>
+        <v>0.917297415032011</v>
       </c>
     </row>
     <row r="5">
@@ -3995,19 +3995,19 @@
         <v>3136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>952</v>
+        <v>1004</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8780</v>
+        <v>8084</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07140362356356976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02168109891320923</v>
+        <v>0.02285772177058528</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1999206942445584</v>
+        <v>0.1840779700160003</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5983</v>
+        <v>6538</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04384370916020244</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2366044431874564</v>
+        <v>0.2585309000879957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -4037,19 +4037,19 @@
         <v>4245</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9999</v>
+        <v>9515</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06133286477886171</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0155397570144299</v>
+        <v>0.0156632172665457</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1444784900053199</v>
+        <v>0.1374850860972752</v>
       </c>
     </row>
     <row r="6">
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4879</v>
+        <v>5638</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02374029168737694</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1111005646205406</v>
+        <v>0.1283837900386526</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6213</v>
+        <v>5531</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01506527377683614</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08977248000464691</v>
+        <v>0.07992263531783772</v>
       </c>
     </row>
     <row r="7">
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10253</v>
+        <v>10320</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07234360065935774</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2334477033719781</v>
+        <v>0.2349864246910603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5286</v>
+        <v>5450</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04162510573438099</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2090224833033834</v>
+        <v>0.2154903593768627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -4171,19 +4171,19 @@
         <v>4230</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>975</v>
+        <v>1004</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11183</v>
+        <v>12258</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06111865459853393</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01408739179338697</v>
+        <v>0.01450117786846904</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1615823032728551</v>
+        <v>0.1771242063569089</v>
       </c>
     </row>
     <row r="8">
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5551</v>
+        <v>5355</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02378456403225312</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1263865410957944</v>
+        <v>0.1219258990541173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7613</v>
+        <v>7494</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03098152699325197</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1100018579113087</v>
+        <v>0.1082896679090921</v>
       </c>
     </row>
     <row r="9">
@@ -4346,19 +4346,19 @@
         <v>51120</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43258</v>
+        <v>42552</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56491</v>
+        <v>56286</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8431391692090283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7134683003894507</v>
+        <v>0.7018321028837086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9317336225514672</v>
+        <v>0.9283489048196371</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -4367,19 +4367,19 @@
         <v>10094</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5462</v>
+        <v>5496</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14512</v>
+        <v>14835</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5340235523194494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2889659307063261</v>
+        <v>0.2907525533271887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7677414927041089</v>
+        <v>0.7848540099908562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -4388,19 +4388,19 @@
         <v>61213</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51736</v>
+        <v>51669</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68372</v>
+        <v>68259</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7696741164456959</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6505187387246923</v>
+        <v>0.6496747144739369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8596888379731803</v>
+        <v>0.8582657918786549</v>
       </c>
     </row>
     <row r="11">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6340</v>
+        <v>7144</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03284356063848971</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.104574393177068</v>
+        <v>0.1178369855923447</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -4438,19 +4438,19 @@
         <v>4505</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1632</v>
+        <v>960</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9326</v>
+        <v>9253</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2383396950832364</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08631831547485572</v>
+        <v>0.05079958792716618</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.493384389234469</v>
+        <v>0.4895395534453555</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -4459,19 +4459,19 @@
         <v>6496</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2815</v>
+        <v>2649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12937</v>
+        <v>13172</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.081682194258987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03539968255006253</v>
+        <v>0.03330350118940043</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1626686014987173</v>
+        <v>0.1656152980538454</v>
       </c>
     </row>
     <row r="12">
@@ -4488,19 +4488,19 @@
         <v>3002</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7639</v>
+        <v>8417</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04950711784562115</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01492925873810833</v>
+        <v>0.01526134720572676</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1259979962037866</v>
+        <v>0.1388303616411076</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -4522,19 +4522,19 @@
         <v>3002</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8735</v>
+        <v>8256</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03774115447797842</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01191230595814608</v>
+        <v>0.01170846958335309</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1098257489783942</v>
+        <v>0.103810322571361</v>
       </c>
     </row>
     <row r="13">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6431</v>
+        <v>6288</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1107831487291637</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3402438463819998</v>
+        <v>0.3326872409093133</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7170</v>
+        <v>7064</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02632895079378463</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09015480170545193</v>
+        <v>0.08882666474443983</v>
       </c>
     </row>
     <row r="14">
@@ -4614,19 +4614,19 @@
         <v>4518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12484</v>
+        <v>13391</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0745101523068608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01837120980621786</v>
+        <v>0.0183476943386675</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2059108367215478</v>
+        <v>0.2208714817447201</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6912</v>
+        <v>6824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1168536038681506</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3656640088822416</v>
+        <v>0.3610171330181494</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -4656,19 +4656,19 @@
         <v>6726</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2243</v>
+        <v>2233</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15605</v>
+        <v>14880</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08457358402355396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02819967517962161</v>
+        <v>0.02807470031745845</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1962139374942125</v>
+        <v>0.1871007966920597</v>
       </c>
     </row>
     <row r="15">
@@ -4760,19 +4760,19 @@
         <v>92195</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81202</v>
+        <v>80004</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100940</v>
+        <v>101310</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7770159421518873</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6843638161198177</v>
+        <v>0.6742691092858947</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8507150708557453</v>
+        <v>0.8538348416436505</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -4781,19 +4781,19 @@
         <v>35614</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27912</v>
+        <v>27168</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42482</v>
+        <v>41868</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6520859806562599</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5110682795452436</v>
+        <v>0.4974426545682331</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7778462356716773</v>
+        <v>0.7665987398090239</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -4802,19 +4802,19 @@
         <v>127809</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112515</v>
+        <v>114531</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139177</v>
+        <v>139583</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7376376926138447</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6493706132395504</v>
+        <v>0.6610078007766503</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.803248717030821</v>
+        <v>0.8055916320366668</v>
       </c>
     </row>
     <row r="17">
@@ -4831,19 +4831,19 @@
         <v>8429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3162</v>
+        <v>3986</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16613</v>
+        <v>18225</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07103562028219017</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0266478224873649</v>
+        <v>0.03359588227699112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1400164351954463</v>
+        <v>0.1535983589446313</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -4852,19 +4852,19 @@
         <v>6397</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2184</v>
+        <v>3004</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12019</v>
+        <v>13929</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1171201402057049</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0399839121662628</v>
+        <v>0.05500285346338814</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2200641653096878</v>
+        <v>0.2550458481464993</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -4873,19 +4873,19 @@
         <v>14825</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8851</v>
+        <v>8419</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26606</v>
+        <v>24095</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08556158109786344</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05108523925984446</v>
+        <v>0.04859000825765045</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1535546049307143</v>
+        <v>0.1390607596788157</v>
       </c>
     </row>
     <row r="18">
@@ -4902,19 +4902,19 @@
         <v>6247</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2198</v>
+        <v>2476</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12572</v>
+        <v>12841</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0526517059277133</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01852178100846437</v>
+        <v>0.02086541502417817</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.105955600822084</v>
+        <v>0.1082251541657261</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -4923,19 +4923,19 @@
         <v>6082</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2089</v>
+        <v>2111</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12191</v>
+        <v>11686</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1113650168410102</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03824580851473797</v>
+        <v>0.03865290181438479</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2232149210825028</v>
+        <v>0.2139785039473286</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -4944,19 +4944,19 @@
         <v>12329</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7032</v>
+        <v>6878</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>21112</v>
+        <v>21179</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0711582945848258</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04058505479518718</v>
+        <v>0.03969545598601548</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1218444414585503</v>
+        <v>0.1222331386554325</v>
       </c>
     </row>
     <row r="19">
@@ -4973,19 +4973,19 @@
         <v>7406</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3040</v>
+        <v>3028</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15398</v>
+        <v>16285</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06241500891759011</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02562178921262697</v>
+        <v>0.02552110776143663</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1297734777282918</v>
+        <v>0.1372474453593821</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4994,19 +4994,19 @@
         <v>4360</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9855</v>
+        <v>9940</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07983249714714373</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01964196877528446</v>
+        <v>0.01998929726206876</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1804375773760286</v>
+        <v>0.181996330647248</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5015,19 +5015,19 @@
         <v>11766</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6388</v>
+        <v>6076</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21839</v>
+        <v>20789</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06790504661245714</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03686969057824559</v>
+        <v>0.03506867650281369</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.126044537511985</v>
+        <v>0.1199835800043553</v>
       </c>
     </row>
     <row r="20">
@@ -5044,19 +5044,19 @@
         <v>4376</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13948</v>
+        <v>13265</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03688172272061917</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008571518596563566</v>
+        <v>0.008410986042240286</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1175528622019007</v>
+        <v>0.1117967514303823</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7035</v>
+        <v>7115</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0395963651498813</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1288172409436495</v>
+        <v>0.1302714644988294</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -5086,19 +5086,19 @@
         <v>6539</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2146</v>
+        <v>2235</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15399</v>
+        <v>16232</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03773738509100887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01238290400316445</v>
+        <v>0.01289690849836676</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0888752965448584</v>
+        <v>0.09368135151766396</v>
       </c>
     </row>
     <row r="21">
@@ -5190,19 +5190,19 @@
         <v>162196</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>146738</v>
+        <v>145954</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>175910</v>
+        <v>175900</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6998676322031567</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6331658394739927</v>
+        <v>0.6297831086961857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.75904301090849</v>
+        <v>0.7589996455363099</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -5211,19 +5211,19 @@
         <v>36252</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28358</v>
+        <v>28081</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43882</v>
+        <v>43259</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6032376681425249</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4718894019773481</v>
+        <v>0.4672696506643975</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7302134089276721</v>
+        <v>0.7198355448255206</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>189</v>
@@ -5232,19 +5232,19 @@
         <v>198448</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>181422</v>
+        <v>182601</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>214795</v>
+        <v>214661</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6799702962598648</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.621632578927566</v>
+        <v>0.6256718059305728</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7359837979946134</v>
+        <v>0.7355224450911083</v>
       </c>
     </row>
     <row r="23">
@@ -5261,19 +5261,19 @@
         <v>6354</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2978</v>
+        <v>3045</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13608</v>
+        <v>12812</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0274164367514695</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01285185447582482</v>
+        <v>0.01314017464390135</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05871875418955858</v>
+        <v>0.0552831241901885</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -5282,19 +5282,19 @@
         <v>8587</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3919</v>
+        <v>3982</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16295</v>
+        <v>16518</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1428987117145398</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06520715522030486</v>
+        <v>0.06625559231497241</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2711555601235304</v>
+        <v>0.2748696226363675</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -5303,19 +5303,19 @@
         <v>14941</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8173</v>
+        <v>8604</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25490</v>
+        <v>25506</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05119570276665752</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02800297694255648</v>
+        <v>0.0294822341180847</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08733988064591369</v>
+        <v>0.08739578977999388</v>
       </c>
     </row>
     <row r="24">
@@ -5332,19 +5332,19 @@
         <v>21945</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13818</v>
+        <v>14499</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32517</v>
+        <v>34227</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09469340270980468</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05962356875245572</v>
+        <v>0.062564441332727</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1403104039020339</v>
+        <v>0.1476889571586138</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -5353,19 +5353,19 @@
         <v>5415</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2106</v>
+        <v>2028</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10982</v>
+        <v>11088</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09011430683774969</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03504928287148361</v>
+        <v>0.0337458569516279</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1827473158655858</v>
+        <v>0.1845031867610849</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -5374,19 +5374,19 @@
         <v>27361</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18720</v>
+        <v>17827</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>39357</v>
+        <v>38374</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09375050875585837</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0641442751607912</v>
+        <v>0.06108401419341945</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1348527343224403</v>
+        <v>0.1314863144092693</v>
       </c>
     </row>
     <row r="25">
@@ -5403,19 +5403,19 @@
         <v>24445</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15539</v>
+        <v>15747</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35699</v>
+        <v>36505</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1054799979457893</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06704892873527905</v>
+        <v>0.06794637535981456</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1540374619738757</v>
+        <v>0.1575170833053712</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -5424,19 +5424,19 @@
         <v>5576</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2158</v>
+        <v>2197</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11899</v>
+        <v>11350</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09278565041760048</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03591142282762722</v>
+        <v>0.03655089816485481</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1980088465553057</v>
+        <v>0.1888685534508696</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -5445,19 +5445,19 @@
         <v>30021</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19495</v>
+        <v>20139</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43286</v>
+        <v>41646</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1028660706841504</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0667985485690501</v>
+        <v>0.06900563630464082</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1483165643297563</v>
+        <v>0.1426962162642921</v>
       </c>
     </row>
     <row r="26">
@@ -5474,19 +5474,19 @@
         <v>16812</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9555</v>
+        <v>9976</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27363</v>
+        <v>26668</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07254253038977979</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04122859422159263</v>
+        <v>0.04304781679645141</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1180709601919937</v>
+        <v>0.1150704037361395</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -5495,19 +5495,19 @@
         <v>4265</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9348</v>
+        <v>9594</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07096366288758504</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01838959743264697</v>
+        <v>0.01815744156842344</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1555502042859611</v>
+        <v>0.1596470117848952</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -5516,19 +5516,19 @@
         <v>21077</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13313</v>
+        <v>11622</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31724</v>
+        <v>30915</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07221742153346888</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04561680782746112</v>
+        <v>0.03982044931962467</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1086990249650624</v>
+        <v>0.1059296603109229</v>
       </c>
     </row>
     <row r="27">
@@ -5620,19 +5620,19 @@
         <v>66664</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>56667</v>
+        <v>56878</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>76104</v>
+        <v>76797</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6491414249722706</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.551789629272364</v>
+        <v>0.5538502438434929</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7410633128766896</v>
+        <v>0.7478134526963793</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>99</v>
@@ -5641,19 +5641,19 @@
         <v>103842</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>90016</v>
+        <v>90089</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>117593</v>
+        <v>117374</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5511794221148941</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4777924980255939</v>
+        <v>0.478181500786458</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6241691247261522</v>
+        <v>0.6230017971430728</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>161</v>
@@ -5662,19 +5662,19 @@
         <v>170506</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>154241</v>
+        <v>152646</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>187193</v>
+        <v>188197</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5857394213237314</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5298625811710774</v>
+        <v>0.5243828625473601</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6430642651907841</v>
+        <v>0.6465120271114763</v>
       </c>
     </row>
     <row r="29">
@@ -5691,19 +5691,19 @@
         <v>13647</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7514</v>
+        <v>7383</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21338</v>
+        <v>21701</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1328842145679109</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07316586434680283</v>
+        <v>0.07188989781096142</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.207776471706696</v>
+        <v>0.2113159800468632</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -5712,19 +5712,19 @@
         <v>21040</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13659</v>
+        <v>13562</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32715</v>
+        <v>31707</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1116786867641988</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07250145185192101</v>
+        <v>0.07198440396626717</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1736456977809937</v>
+        <v>0.1682971084620968</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>33</v>
@@ -5733,19 +5733,19 @@
         <v>34687</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24001</v>
+        <v>24135</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47262</v>
+        <v>46082</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1191597815023928</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08245053750416134</v>
+        <v>0.08291235099490844</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1623595174728735</v>
+        <v>0.1583051434535415</v>
       </c>
     </row>
     <row r="30">
@@ -5762,19 +5762,19 @@
         <v>9715</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4397</v>
+        <v>4239</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16147</v>
+        <v>16403</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09459670255510207</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04281889198834378</v>
+        <v>0.04127572311232787</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1572280981758132</v>
+        <v>0.1597246227841654</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -5783,19 +5783,19 @@
         <v>19398</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11807</v>
+        <v>11845</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30055</v>
+        <v>30420</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1029630767726932</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0626672442913606</v>
+        <v>0.06287187262238861</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1595289950733869</v>
+        <v>0.1614653872575795</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>27</v>
@@ -5804,19 +5804,19 @@
         <v>29113</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19860</v>
+        <v>20572</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>40232</v>
+        <v>42679</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1000115049600819</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06822453668232757</v>
+        <v>0.07067147397208892</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1382098271797731</v>
+        <v>0.1466153023287828</v>
       </c>
     </row>
     <row r="31">
@@ -5833,19 +5833,19 @@
         <v>5487</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2170</v>
+        <v>2140</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12064</v>
+        <v>11997</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05343268317633544</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02113257174002192</v>
+        <v>0.02083686340671574</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1174730634870834</v>
+        <v>0.1168217499958712</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -5854,19 +5854,19 @@
         <v>16989</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9843</v>
+        <v>9945</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>27016</v>
+        <v>27190</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09017566807236765</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05224308441310642</v>
+        <v>0.05278645723579128</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1433967077150721</v>
+        <v>0.1443188803082271</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -5875,19 +5875,19 @@
         <v>22476</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13681</v>
+        <v>15068</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>33345</v>
+        <v>32738</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07721311634926788</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04699826214023651</v>
+        <v>0.05176452423648062</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1145503928247061</v>
+        <v>0.112466232683147</v>
       </c>
     </row>
     <row r="32">
@@ -5904,19 +5904,19 @@
         <v>7183</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3090</v>
+        <v>3071</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13570</v>
+        <v>13385</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06994497472838108</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0300884183595514</v>
+        <v>0.02990326564704452</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.132138679931792</v>
+        <v>0.1303390255775109</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -5925,19 +5925,19 @@
         <v>27130</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18092</v>
+        <v>18677</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>38212</v>
+        <v>39155</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1440031462758461</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0960297871987527</v>
+        <v>0.09913685228970708</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2028232974468462</v>
+        <v>0.2078273745250364</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>32</v>
@@ -5946,7 +5946,7 @@
         <v>34313</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>24686</v>
+        <v>23244</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>46315</v>
@@ -5955,10 +5955,10 @@
         <v>0.1178761758645261</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08480301173960045</v>
+        <v>0.07985147988232723</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1591038947982856</v>
+        <v>0.1591049648701149</v>
       </c>
     </row>
     <row r="33">
@@ -6063,19 +6063,19 @@
         <v>248527</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>229124</v>
+        <v>229073</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>267185</v>
+        <v>265480</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6296537681188197</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5804947631652779</v>
+        <v>0.5803675361001804</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6769254084134598</v>
+        <v>0.6726061309245402</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>236</v>
@@ -6084,19 +6084,19 @@
         <v>250515</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>230815</v>
+        <v>230109</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>269921</v>
+        <v>268943</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6315094805971966</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5818498551225872</v>
+        <v>0.5800686263401106</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6804295481395405</v>
+        <v>0.6779652152664043</v>
       </c>
     </row>
     <row r="35">
@@ -6126,19 +6126,19 @@
         <v>50527</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>37715</v>
+        <v>38518</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>64536</v>
+        <v>63649</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1280119782348224</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09555183963799578</v>
+        <v>0.09758639983609967</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1635043801074337</v>
+        <v>0.1612580397004384</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>47</v>
@@ -6147,19 +6147,19 @@
         <v>50527</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>37770</v>
+        <v>37657</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>64614</v>
+        <v>63279</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1273705421813613</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09521341615381047</v>
+        <v>0.09492730492023223</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1628830263162791</v>
+        <v>0.1595167739262936</v>
       </c>
     </row>
     <row r="36">
@@ -6189,19 +6189,19 @@
         <v>25178</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>16761</v>
+        <v>16605</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>36059</v>
+        <v>37233</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06378940772299271</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04246540342237731</v>
+        <v>0.04206870774999626</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09135673395860726</v>
+        <v>0.09433246743504067</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>23</v>
@@ -6210,19 +6210,19 @@
         <v>25178</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16874</v>
+        <v>16494</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>37057</v>
+        <v>36633</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06346977493154093</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04253651734690711</v>
+        <v>0.04157872550578516</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09341589602318238</v>
+        <v>0.09234672724452495</v>
       </c>
     </row>
     <row r="37">
@@ -6252,19 +6252,19 @@
         <v>37442</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>26167</v>
+        <v>26636</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>50053</v>
+        <v>51089</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09486206778093764</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06629566369978901</v>
+        <v>0.06748461437654125</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1268124756680757</v>
+        <v>0.1294374372417951</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -6273,19 +6273,19 @@
         <v>37442</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>26863</v>
+        <v>26459</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>50370</v>
+        <v>49593</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09438673764996389</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06771751473526443</v>
+        <v>0.06669978347665823</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1269747090010296</v>
+        <v>0.1250164411178257</v>
       </c>
     </row>
     <row r="38">
@@ -6315,19 +6315,19 @@
         <v>33030</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>22950</v>
+        <v>23363</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>46185</v>
+        <v>44984</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08368277814242747</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05814510436764853</v>
+        <v>0.05919018135213193</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1170128919255158</v>
+        <v>0.1139701918154559</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>30</v>
@@ -6336,19 +6336,19 @@
         <v>33030</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>22834</v>
+        <v>22922</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>45748</v>
+        <v>45386</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08326346463993727</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05756038156183591</v>
+        <v>0.05778404257405412</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1153243025441567</v>
+        <v>0.1144104252369751</v>
       </c>
     </row>
     <row r="39">
@@ -6440,19 +6440,19 @@
         <v>409680</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>386975</v>
+        <v>387017</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>431897</v>
+        <v>431741</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.7320465494883265</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6914747482212765</v>
+        <v>0.691549239457575</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.771744617224526</v>
+        <v>0.7714666353609592</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>431</v>
@@ -6461,19 +6461,19 @@
         <v>456356</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>426757</v>
+        <v>430438</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>483112</v>
+        <v>485720</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6150314959472908</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5751407088492169</v>
+        <v>0.5801007864889665</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6510898594472679</v>
+        <v>0.6546045068695415</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>802</v>
@@ -6482,19 +6482,19 @@
         <v>866037</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>830758</v>
+        <v>831494</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>901427</v>
+        <v>901210</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6653417632157803</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6382385421681339</v>
+        <v>0.6388038765455485</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6925308663744282</v>
+        <v>0.6923640382843692</v>
       </c>
     </row>
     <row r="41">
@@ -6511,19 +6511,19 @@
         <v>33556</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>23077</v>
+        <v>23281</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>47156</v>
+        <v>45741</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05996077112903619</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04123643413392623</v>
+        <v>0.04159997932206658</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08426100689027154</v>
+        <v>0.08173251176998743</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>85</v>
@@ -6532,19 +6532,19 @@
         <v>92165</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>75559</v>
+        <v>74265</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>111615</v>
+        <v>111456</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1242106601331486</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.101830935883342</v>
+        <v>0.1000865946694391</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1504235775550179</v>
+        <v>0.1502087797499668</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>116</v>
@@ -6553,19 +6553,19 @@
         <v>125721</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>105026</v>
+        <v>106500</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>148198</v>
+        <v>149252</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09658661527780774</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08068713439682514</v>
+        <v>0.08181995409164851</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.113854636917906</v>
+        <v>0.1146640758713726</v>
       </c>
     </row>
     <row r="42">
@@ -6582,19 +6582,19 @@
         <v>41952</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>31026</v>
+        <v>30542</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>56071</v>
+        <v>57445</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07496228127889146</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05543911748133393</v>
+        <v>0.05457381554573649</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1001909030320516</v>
+        <v>0.1026475722203105</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>52</v>
@@ -6603,19 +6603,19 @@
         <v>56074</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>42781</v>
+        <v>42424</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>72746</v>
+        <v>71749</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07557067599778666</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0576560495330233</v>
+        <v>0.05717484835710863</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09803943878151813</v>
+        <v>0.09669627373587054</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>91</v>
@@ -6624,19 +6624,19 @@
         <v>98025</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>80851</v>
+        <v>77525</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>120060</v>
+        <v>117704</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.07530909853415185</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06211451871982855</v>
+        <v>0.05955944697780321</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09223744721165789</v>
+        <v>0.09042704210122961</v>
       </c>
     </row>
     <row r="43">
@@ -6653,19 +6653,19 @@
         <v>40516</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>28124</v>
+        <v>28027</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>54505</v>
+        <v>55453</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07239606332318689</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05025363690106929</v>
+        <v>0.05007990532808768</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09739391913013373</v>
+        <v>0.09908787604778514</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>61</v>
@@ -6674,19 +6674,19 @@
         <v>67514</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>52430</v>
+        <v>52365</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>84364</v>
+        <v>85963</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.09098889643373032</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07066033432499973</v>
+        <v>0.07057195405543924</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.113697389813552</v>
+        <v>0.1158520664035229</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>95</v>
@@ -6695,19 +6695,19 @@
         <v>108030</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>87929</v>
+        <v>87990</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>132349</v>
+        <v>132265</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0829949642449814</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06755260165094455</v>
+        <v>0.06759922033223453</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1016786165767581</v>
+        <v>0.1016143341187778</v>
       </c>
     </row>
     <row r="44">
@@ -6724,19 +6724,19 @@
         <v>33933</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>23478</v>
+        <v>23339</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>48311</v>
+        <v>48620</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.06063433478055898</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04195228829737516</v>
+        <v>0.04170307752231689</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08632491261992964</v>
+        <v>0.08687816744129551</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>64</v>
@@ -6745,19 +6745,19 @@
         <v>69896</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>55082</v>
+        <v>54978</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>89097</v>
+        <v>86849</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.09419827148804362</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0742336135188055</v>
+        <v>0.07409398166621121</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.120075523740865</v>
+        <v>0.1170466836837445</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>93</v>
@@ -6766,19 +6766,19 @@
         <v>103829</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>83792</v>
+        <v>85126</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>125136</v>
+        <v>126235</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.07976755872727864</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06437440025043392</v>
+        <v>0.06539877910930039</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.09613729507214357</v>
+        <v>0.09698098571726704</v>
       </c>
     </row>
     <row r="45">
@@ -7112,19 +7112,19 @@
         <v>61619</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55346</v>
+        <v>55187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65705</v>
+        <v>65388</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8976190487346798</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8062466937405527</v>
+        <v>0.8039282116385346</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9571481208312494</v>
+        <v>0.9525218637638563</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -7133,19 +7133,19 @@
         <v>27468</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20506</v>
+        <v>20223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32969</v>
+        <v>32396</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.744618872502632</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5559027057320324</v>
+        <v>0.5482163583409432</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8937704887455207</v>
+        <v>0.8782333495979825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -7154,19 +7154,19 @@
         <v>89086</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79254</v>
+        <v>79290</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96015</v>
+        <v>96325</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8441400919459993</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7509703578646658</v>
+        <v>0.7513133090565363</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9097976287912292</v>
+        <v>0.9127336193548558</v>
       </c>
     </row>
     <row r="5">
@@ -7183,19 +7183,19 @@
         <v>2955</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>866</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7719</v>
+        <v>7380</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04304858042126189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01261620832921336</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1124390394629234</v>
+        <v>0.1075050963620813</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -7204,19 +7204,19 @@
         <v>4587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1113</v>
+        <v>1062</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11156</v>
+        <v>11600</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1243581903744354</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03018498772536128</v>
+        <v>0.02880102969186225</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3024351683764767</v>
+        <v>0.3144637020979881</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -7225,19 +7225,19 @@
         <v>7542</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3221</v>
+        <v>3012</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16103</v>
+        <v>16461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07146915629429425</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03051662077838206</v>
+        <v>0.02854147986927659</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1525843248748212</v>
+        <v>0.1559745996968045</v>
       </c>
     </row>
     <row r="6">
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7078</v>
+        <v>7584</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02290312290990164</v>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1031144143232646</v>
+        <v>0.110478651515021</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7492</v>
+        <v>7142</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0609036467540869</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2031110689869366</v>
+        <v>0.1936258175766361</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -7296,19 +7296,19 @@
         <v>3819</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10207</v>
+        <v>10723</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.036185645993589</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009915761836851998</v>
+        <v>0.009771916693090511</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09671535514566762</v>
+        <v>0.1016080072202552</v>
       </c>
     </row>
     <row r="7">
@@ -7325,19 +7325,19 @@
         <v>2501</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6456</v>
+        <v>6154</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03642924793415668</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01057142393944182</v>
+        <v>0.01052380277769381</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09404173622894425</v>
+        <v>0.08964151668855819</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6127</v>
+        <v>6638</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03282329730341099</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.166110032176136</v>
+        <v>0.1799428381870455</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -7367,19 +7367,19 @@
         <v>3712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8912</v>
+        <v>8516</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03516884103324378</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008363898692587319</v>
+        <v>0.008168435889575812</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0844462371811605</v>
+        <v>0.08069661986130294</v>
       </c>
     </row>
     <row r="8">
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6956</v>
+        <v>7046</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01303626473287373</v>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06590828906465615</v>
+        <v>0.06676355562504785</v>
       </c>
     </row>
     <row r="9">
@@ -7534,19 +7534,19 @@
         <v>42590</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36835</v>
+        <v>35952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47476</v>
+        <v>47163</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7984004369575842</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6905147235227117</v>
+        <v>0.6739727606077257</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8899879629345161</v>
+        <v>0.8841298209482161</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -7555,19 +7555,19 @@
         <v>9530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4690</v>
+        <v>4704</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14165</v>
+        <v>14089</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5418682880887922</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2666788731934261</v>
+        <v>0.2674582188699985</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8053552363349459</v>
+        <v>0.8010852440816215</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -7576,19 +7576,19 @@
         <v>52120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44140</v>
+        <v>44668</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58926</v>
+        <v>59059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7347913021226903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6222836577795009</v>
+        <v>0.6297265258592397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8307331425242165</v>
+        <v>0.8326192188166902</v>
       </c>
     </row>
     <row r="11">
@@ -7605,19 +7605,19 @@
         <v>3485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7963</v>
+        <v>8328</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06533112255412138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01631138585833074</v>
+        <v>0.01601260593557408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1492731920520203</v>
+        <v>0.1561231591066329</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -7626,19 +7626,19 @@
         <v>4297</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1018</v>
+        <v>1165</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8785</v>
+        <v>9405</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2442863612193042</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05786350203338135</v>
+        <v>0.06626592095494155</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4994757111523428</v>
+        <v>0.5347365001502242</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -7647,19 +7647,19 @@
         <v>7782</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3721</v>
+        <v>3763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15332</v>
+        <v>14398</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1097044611624</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05246309861988382</v>
+        <v>0.05305117249164693</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2161527444533829</v>
+        <v>0.202985617144439</v>
       </c>
     </row>
     <row r="12">
@@ -7676,19 +7676,19 @@
         <v>3441</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8120</v>
+        <v>8051</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0644978783327233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01716105986669227</v>
+        <v>0.01678890034367349</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.152221984005234</v>
+        <v>0.150923693543441</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7254</v>
+        <v>6970</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1421152087432044</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4124137433931113</v>
+        <v>0.3963022248324514</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -7718,19 +7718,19 @@
         <v>5940</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2343</v>
+        <v>2471</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12263</v>
+        <v>12774</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08374369706295196</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03303616931070451</v>
+        <v>0.03482937361519729</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1728864470696703</v>
+        <v>0.180091605901198</v>
       </c>
     </row>
     <row r="13">
@@ -7747,19 +7747,19 @@
         <v>3829</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8642</v>
+        <v>8182</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07177056215557114</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01853502076801646</v>
+        <v>0.01881773640403375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1620059077193299</v>
+        <v>0.1533824418430759</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -7781,19 +7781,19 @@
         <v>3829</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8648</v>
+        <v>8904</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05397449493568889</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01309204949530778</v>
+        <v>0.01326619537477113</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1219225051762644</v>
+        <v>0.1255324067481699</v>
       </c>
     </row>
     <row r="14">
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5638</v>
+        <v>5618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0717301419486993</v>
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.320543428582608</v>
+        <v>0.3194465677654527</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6174</v>
+        <v>6722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01778604471626894</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08704228842556018</v>
+        <v>0.09476283975689198</v>
       </c>
     </row>
     <row r="15">
@@ -7948,19 +7948,19 @@
         <v>103778</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95640</v>
+        <v>95773</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110129</v>
+        <v>109907</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8629404159026165</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7952742664408312</v>
+        <v>0.7963751131960703</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9157519272062312</v>
+        <v>0.9139035636630652</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -7969,19 +7969,19 @@
         <v>29909</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22570</v>
+        <v>22399</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37075</v>
+        <v>36857</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6472572343753452</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4884387350908271</v>
+        <v>0.4847253048624971</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8023306096958808</v>
+        <v>0.7976104792846541</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -7990,19 +7990,19 @@
         <v>133687</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121856</v>
+        <v>122148</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143057</v>
+        <v>142603</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8030708997325652</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7319972797965443</v>
+        <v>0.7337544787458923</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8593568988049489</v>
+        <v>0.856626843445197</v>
       </c>
     </row>
     <row r="17">
@@ -8019,19 +8019,19 @@
         <v>3240</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>834</v>
+        <v>897</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7602</v>
+        <v>7558</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02694231973608245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006936359388108737</v>
+        <v>0.007459175651363202</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06321206996036087</v>
+        <v>0.06284791777530943</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -8040,19 +8040,19 @@
         <v>6916</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2591</v>
+        <v>2730</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13513</v>
+        <v>14032</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1496571620982123</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05608140347969739</v>
+        <v>0.05908449281995586</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2924361869093944</v>
+        <v>0.3036719406409628</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -8061,19 +8061,19 @@
         <v>10156</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5312</v>
+        <v>5007</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18272</v>
+        <v>17784</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06100560731873473</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03190917676805548</v>
+        <v>0.03008026238295124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1097597512097766</v>
+        <v>0.106829468653658</v>
       </c>
     </row>
     <row r="18">
@@ -8093,16 +8093,16 @@
         <v>3316</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13342</v>
+        <v>13350</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05923139484009461</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0275757279454972</v>
+        <v>0.02757232893617804</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1109439235239942</v>
+        <v>0.1110122693315975</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7453</v>
+        <v>7407</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.053587122227903</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1612907239707236</v>
+        <v>0.1602831520830599</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -8132,19 +8132,19 @@
         <v>9599</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5201</v>
+        <v>5131</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17194</v>
+        <v>16988</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05766465297347829</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03124357947880757</v>
+        <v>0.03082497830337292</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1032869135060547</v>
+        <v>0.1020455407975031</v>
       </c>
     </row>
     <row r="19">
@@ -8161,19 +8161,19 @@
         <v>4075</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1556</v>
+        <v>1604</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8912</v>
+        <v>9221</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03388609872025581</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01294120723487219</v>
+        <v>0.01333566945436714</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07410452730285433</v>
+        <v>0.07667759441244948</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -8182,19 +8182,19 @@
         <v>5721</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1373</v>
+        <v>1353</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12589</v>
+        <v>13892</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1238062958309521</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02971662303132957</v>
+        <v>0.02928852975436056</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2724265299610948</v>
+        <v>0.3006435840957049</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -8203,19 +8203,19 @@
         <v>9796</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4418</v>
+        <v>5223</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17307</v>
+        <v>17979</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05884622151152843</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02654227786676244</v>
+        <v>0.03137294169951321</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1039665569736705</v>
+        <v>0.1080008085394464</v>
       </c>
     </row>
     <row r="20">
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7003</v>
+        <v>7237</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01699977080095058</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05823179239112714</v>
+        <v>0.0601756719976842</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5338</v>
+        <v>5559</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02569218546758745</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1155133001809109</v>
+        <v>0.1202940425301047</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -8274,19 +8274,19 @@
         <v>3232</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8513</v>
+        <v>8872</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01941261846369338</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004699200950569135</v>
+        <v>0.004703759567726844</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05113960398368895</v>
+        <v>0.05329372139700037</v>
       </c>
     </row>
     <row r="21">
@@ -8378,19 +8378,19 @@
         <v>162077</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>151581</v>
+        <v>151080</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>172429</v>
+        <v>173719</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7950557188014481</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7435700152634183</v>
+        <v>0.741112586589237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8458350898938883</v>
+        <v>0.8521656728054254</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -8399,19 +8399,19 @@
         <v>64845</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54130</v>
+        <v>52614</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74988</v>
+        <v>74290</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6546912186613489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5465126318748872</v>
+        <v>0.5312091565026769</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7570993548229217</v>
+        <v>0.7500578552567728</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>227</v>
@@ -8420,19 +8420,19 @@
         <v>226921</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>210047</v>
+        <v>211996</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241816</v>
+        <v>243880</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7491578625621238</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.693449851416549</v>
+        <v>0.6998840066020435</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7983313759092195</v>
+        <v>0.8051459924956101</v>
       </c>
     </row>
     <row r="23">
@@ -8449,19 +8449,19 @@
         <v>11330</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6618</v>
+        <v>6597</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18895</v>
+        <v>18389</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05557841728296616</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03246226705711228</v>
+        <v>0.03236086991760292</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09268618531948315</v>
+        <v>0.09020796203341333</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -8470,19 +8470,19 @@
         <v>13752</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7717</v>
+        <v>7851</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21898</v>
+        <v>23653</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1388410710706436</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07790880433497513</v>
+        <v>0.07926993428153559</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2210869050449709</v>
+        <v>0.2388038415361242</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -8491,19 +8491,19 @@
         <v>25082</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16984</v>
+        <v>16782</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>36366</v>
+        <v>36049</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08280451298264165</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05607025683694393</v>
+        <v>0.05540535180611581</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.12005977922457</v>
+        <v>0.1190128054831027</v>
       </c>
     </row>
     <row r="24">
@@ -8520,19 +8520,19 @@
         <v>11173</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6618</v>
+        <v>5905</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17525</v>
+        <v>18922</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05481030785313955</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03246219982582364</v>
+        <v>0.02896807530360811</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08596844052703496</v>
+        <v>0.09282248562335717</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -8541,19 +8541,19 @@
         <v>5767</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2119</v>
+        <v>2128</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13008</v>
+        <v>12684</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05822903452347418</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02139719805440375</v>
+        <v>0.02148602700778821</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1313351567165283</v>
+        <v>0.1280578978012884</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -8562,19 +8562,19 @@
         <v>16941</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9955</v>
+        <v>10055</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25895</v>
+        <v>26096</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05592819895152944</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03286432211907877</v>
+        <v>0.03319592108878236</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08549058158262007</v>
+        <v>0.0861543336969124</v>
       </c>
     </row>
     <row r="25">
@@ -8591,19 +8591,19 @@
         <v>12348</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7053</v>
+        <v>6880</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20586</v>
+        <v>20054</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06057215298701932</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03459654392836246</v>
+        <v>0.03374934398235836</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1009825815647925</v>
+        <v>0.09837274284050088</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -8612,19 +8612,19 @@
         <v>11315</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5168</v>
+        <v>5266</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21408</v>
+        <v>20609</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1142353872767424</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05217510293350516</v>
+        <v>0.05316407088344113</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2161431833967926</v>
+        <v>0.208074244224891</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -8633,19 +8633,19 @@
         <v>23663</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15524</v>
+        <v>14824</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35741</v>
+        <v>34378</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07811952009414769</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0512499913938084</v>
+        <v>0.0489401732287349</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1179936424822671</v>
+        <v>0.1134957588666521</v>
       </c>
     </row>
     <row r="26">
@@ -8662,19 +8662,19 @@
         <v>6928</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3317</v>
+        <v>3266</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13013</v>
+        <v>12908</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03398340307542691</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01627281789134179</v>
+        <v>0.01602341301809923</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06383394727749921</v>
+        <v>0.06331690720440522</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11292</v>
+        <v>12762</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03400328846779075</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1140040016352542</v>
+        <v>0.1288510493705815</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -8704,19 +8704,19 @@
         <v>10296</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5050</v>
+        <v>5091</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18490</v>
+        <v>18708</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03398990540955746</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01667303280103807</v>
+        <v>0.01680639894974381</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06104417603858165</v>
+        <v>0.06176301606793867</v>
       </c>
     </row>
     <row r="27">
@@ -8808,19 +8808,19 @@
         <v>96922</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>85768</v>
+        <v>85330</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>106624</v>
+        <v>106832</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.66740908035379</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5906001336907705</v>
+        <v>0.5875858590989097</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7342202480109133</v>
+        <v>0.7356479608359687</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>93</v>
@@ -8829,19 +8829,19 @@
         <v>104478</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>92478</v>
+        <v>90742</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>117912</v>
+        <v>116937</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.654829619689522</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5796149337903118</v>
+        <v>0.5687377210186846</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7390267555052319</v>
+        <v>0.7329179944572791</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>199</v>
@@ -8850,19 +8850,19 @@
         <v>201400</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>185338</v>
+        <v>183387</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>217996</v>
+        <v>218040</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6608236246256138</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6081228195445127</v>
+        <v>0.6017198767911294</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7152793880310487</v>
+        <v>0.7154234268445863</v>
       </c>
     </row>
     <row r="29">
@@ -8879,19 +8879,19 @@
         <v>14247</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8493</v>
+        <v>8243</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21402</v>
+        <v>21065</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09810673954138724</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05848475000940349</v>
+        <v>0.05676397354378309</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1473725024791681</v>
+        <v>0.145057653751107</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -8900,19 +8900,19 @@
         <v>15490</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8229</v>
+        <v>8933</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25092</v>
+        <v>25088</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09708305363582953</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0515737653667115</v>
+        <v>0.05599047653533129</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.157266318354844</v>
+        <v>0.1572407214681376</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>29</v>
@@ -8921,19 +8921,19 @@
         <v>29737</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21175</v>
+        <v>21189</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>41953</v>
+        <v>43118</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09757083117531894</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06947679053413616</v>
+        <v>0.0695251913023112</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1376548378902453</v>
+        <v>0.1414768262738397</v>
       </c>
     </row>
     <row r="30">
@@ -8950,19 +8950,19 @@
         <v>16899</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10671</v>
+        <v>10236</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25835</v>
+        <v>26349</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1163640266273355</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07347835315080156</v>
+        <v>0.07048484178683742</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1778992327438469</v>
+        <v>0.1814432462849701</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -8971,19 +8971,19 @@
         <v>15908</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9220</v>
+        <v>9238</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25619</v>
+        <v>25115</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09970237713205152</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05779056405203462</v>
+        <v>0.05789748410247306</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1605711101825901</v>
+        <v>0.157410106155582</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>32</v>
@@ -8992,19 +8992,19 @@
         <v>32806</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22431</v>
+        <v>23243</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>44117</v>
+        <v>45057</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1076415099759456</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07359926315054582</v>
+        <v>0.07626412905212228</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1447536455625778</v>
+        <v>0.1478397722078488</v>
       </c>
     </row>
     <row r="31">
@@ -9021,19 +9021,19 @@
         <v>9259</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4298</v>
+        <v>4560</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15726</v>
+        <v>16108</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06376109337540489</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02959527585382998</v>
+        <v>0.03140129655356239</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1082905570260513</v>
+        <v>0.1109175421333852</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -9042,19 +9042,19 @@
         <v>13863</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7331</v>
+        <v>7499</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22517</v>
+        <v>23052</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08688998735159552</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04594501644907362</v>
+        <v>0.04700075343825816</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1411306057877869</v>
+        <v>0.1444807835690398</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>21</v>
@@ -9063,19 +9063,19 @@
         <v>23123</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14798</v>
+        <v>15218</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>35203</v>
+        <v>35295</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07586926807279348</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04855504169235274</v>
+        <v>0.04993172542734456</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1155063427895758</v>
+        <v>0.115808681646218</v>
       </c>
     </row>
     <row r="32">
@@ -9092,19 +9092,19 @@
         <v>7894</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3598</v>
+        <v>3681</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14524</v>
+        <v>14319</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05435906010208238</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02477482926365678</v>
+        <v>0.02535005773258074</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1000158479011346</v>
+        <v>0.09860396712545874</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -9113,19 +9113,19 @@
         <v>9812</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4520</v>
+        <v>3922</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18059</v>
+        <v>17589</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06149496219100138</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02832975065655348</v>
+        <v>0.02457927106373562</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1131869115966429</v>
+        <v>0.1102392985018127</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>17</v>
@@ -9134,19 +9134,19 @@
         <v>17706</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10947</v>
+        <v>10740</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>29602</v>
+        <v>26904</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05809476615032819</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03591736287856134</v>
+        <v>0.03524041515315273</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09712722305033965</v>
+        <v>0.08827748387242078</v>
       </c>
     </row>
     <row r="33">
@@ -9247,19 +9247,19 @@
         <v>261828</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>240828</v>
+        <v>240426</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>282741</v>
+        <v>284263</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6338382414664561</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.583000816395118</v>
+        <v>0.5820291800905838</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6844661973848165</v>
+        <v>0.6881504178979534</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>227</v>
@@ -9268,19 +9268,19 @@
         <v>261828</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>240828</v>
+        <v>240426</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>282741</v>
+        <v>284263</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6338382414664561</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.583000816395118</v>
+        <v>0.5820291800905838</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6844661973848165</v>
+        <v>0.6881504178979534</v>
       </c>
     </row>
     <row r="35">
@@ -9306,19 +9306,19 @@
         <v>48098</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>35438</v>
+        <v>34764</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>63242</v>
+        <v>64494</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1164359598548414</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0857899036480498</v>
+        <v>0.08415640395530825</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1530979541981949</v>
+        <v>0.1561281283280659</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>39</v>
@@ -9327,19 +9327,19 @@
         <v>48098</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>35438</v>
+        <v>34764</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>63242</v>
+        <v>64494</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1164359598548414</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0857899036480498</v>
+        <v>0.08415640395530825</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1530979541981949</v>
+        <v>0.1561281283280659</v>
       </c>
     </row>
     <row r="36">
@@ -9365,19 +9365,19 @@
         <v>47215</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>34087</v>
+        <v>33708</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>62352</v>
+        <v>62206</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1142995622032478</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08251961258488284</v>
+        <v>0.08160150635384945</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1509428810982931</v>
+        <v>0.1505890429120521</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>37</v>
@@ -9386,19 +9386,19 @@
         <v>47215</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>34087</v>
+        <v>33708</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>62352</v>
+        <v>62206</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1142995622032478</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08251961258488284</v>
+        <v>0.08160150635384945</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1509428810982931</v>
+        <v>0.1505890429120521</v>
       </c>
     </row>
     <row r="37">
@@ -9424,19 +9424,19 @@
         <v>32017</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>21953</v>
+        <v>20889</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>46108</v>
+        <v>45821</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07750708018107336</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05314519025854119</v>
+        <v>0.05056928553875021</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.111618079818045</v>
+        <v>0.1109244575294887</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>26</v>
@@ -9445,19 +9445,19 @@
         <v>32017</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>21953</v>
+        <v>20889</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>46108</v>
+        <v>45821</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07750708018107336</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05314519025854119</v>
+        <v>0.05056928553875021</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.111618079818045</v>
+        <v>0.1109244575294887</v>
       </c>
     </row>
     <row r="38">
@@ -9483,19 +9483,19 @@
         <v>23925</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>14242</v>
+        <v>14232</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>36134</v>
+        <v>36973</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05791915629438139</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03447826311346607</v>
+        <v>0.03445427601662478</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.08747280243029232</v>
+        <v>0.08950533394969662</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>18</v>
@@ -9504,19 +9504,19 @@
         <v>23925</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>14242</v>
+        <v>14232</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>36134</v>
+        <v>36973</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05791915629438139</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03447826311346607</v>
+        <v>0.03445427601662478</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08747280243029232</v>
+        <v>0.08950533394969662</v>
       </c>
     </row>
     <row r="39">
@@ -9596,19 +9596,19 @@
         <v>466985</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>448970</v>
+        <v>448311</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>485636</v>
+        <v>485461</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.7897219938655612</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.7592569727670571</v>
+        <v>0.7581427159999391</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.8212639639979329</v>
+        <v>0.8209681446327856</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>430</v>
@@ -9617,19 +9617,19 @@
         <v>498057</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>467972</v>
+        <v>470177</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>527994</v>
+        <v>527214</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6448480464880909</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6058962487059399</v>
+        <v>0.6087510879385194</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6836075351186122</v>
+        <v>0.6825982999260208</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>918</v>
@@ -9638,19 +9638,19 @@
         <v>965042</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>928708</v>
+        <v>929046</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>998033</v>
+        <v>999355</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.7076687006087639</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6810244406828289</v>
+        <v>0.6812723897356663</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7318612899091893</v>
+        <v>0.7328303211995948</v>
       </c>
     </row>
     <row r="41">
@@ -9667,19 +9667,19 @@
         <v>35257</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>26014</v>
+        <v>25348</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>47288</v>
+        <v>46607</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05962405304732495</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04399273625768781</v>
+        <v>0.04286697316210787</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07996908878298718</v>
+        <v>0.07881818247878374</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>77</v>
@@ -9688,19 +9688,19 @@
         <v>93138</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>75262</v>
+        <v>74562</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>115202</v>
+        <v>115933</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1205886334319587</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09744361772058656</v>
+        <v>0.0965376962370524</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1491549816590891</v>
+        <v>0.1501009833638189</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>117</v>
@@ -9709,19 +9709,19 @@
         <v>128396</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>108650</v>
+        <v>107761</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>153803</v>
+        <v>152934</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09415299826577959</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07967324200393647</v>
+        <v>0.07902166847344542</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1127845677428846</v>
+        <v>0.112147242383275</v>
       </c>
     </row>
     <row r="42">
@@ -9738,19 +9738,19 @@
         <v>40208</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>29533</v>
+        <v>30141</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>52318</v>
+        <v>53003</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06799588871503862</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04994400633420337</v>
+        <v>0.05097120248883598</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08847540216575692</v>
+        <v>0.08963440445127688</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>62</v>
@@ -9759,19 +9759,19 @@
         <v>76112</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>60264</v>
+        <v>59662</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>95734</v>
+        <v>96053</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09854475188564979</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07802501763505464</v>
+        <v>0.07724628692227602</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1239491349018089</v>
+        <v>0.1243624203921478</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>106</v>
@@ -9780,19 +9780,19 @@
         <v>116320</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>95822</v>
+        <v>96504</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>137883</v>
+        <v>141144</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.08529806673790201</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07026673359454649</v>
+        <v>0.07076643025995225</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1011097523821285</v>
+        <v>0.1035011312569615</v>
       </c>
     </row>
     <row r="43">
@@ -9809,19 +9809,19 @@
         <v>32012</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>22506</v>
+        <v>22647</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>43472</v>
+        <v>42873</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05413552117561758</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03806015904188903</v>
+        <v>0.03829776834356612</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07351647542297472</v>
+        <v>0.07250314953400211</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>50</v>
@@ -9830,19 +9830,19 @@
         <v>64126</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>48556</v>
+        <v>48256</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>84013</v>
+        <v>83356</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08302618597545393</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06286710623714374</v>
+        <v>0.06247851406983344</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1087739488566184</v>
+        <v>0.107923721505948</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>86</v>
@@ -9851,19 +9851,19 @@
         <v>96138</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>77447</v>
+        <v>76695</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>117295</v>
+        <v>117332</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07049853353303098</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05679199601685263</v>
+        <v>0.05624051727906008</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.08601298655993755</v>
+        <v>0.08604032166545376</v>
       </c>
     </row>
     <row r="44">
@@ -9880,19 +9880,19 @@
         <v>16866</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10101</v>
+        <v>10520</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>25133</v>
+        <v>26571</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02852254319645768</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01708254490182511</v>
+        <v>0.01779030025472673</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0425033884839567</v>
+        <v>0.04493518781543902</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>31</v>
@@ -9901,19 +9901,19 @@
         <v>40929</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>27849</v>
+        <v>28771</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>57454</v>
+        <v>58263</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.05299238221884659</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03605708850308275</v>
+        <v>0.03725088020153815</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.07438739091306783</v>
+        <v>0.07543476167451565</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>50</v>
@@ -9922,19 +9922,19 @@
         <v>57796</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>42068</v>
+        <v>43264</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>75853</v>
+        <v>74472</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.04238170085452356</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03084836854654097</v>
+        <v>0.03172543759424214</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.05562292953227279</v>
+        <v>0.05461065797565844</v>
       </c>
     </row>
     <row r="45">
@@ -10268,19 +10268,19 @@
         <v>106639</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99831</v>
+        <v>100493</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111001</v>
+        <v>111495</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8944318671914598</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8373351020145178</v>
+        <v>0.8428829098952608</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9310252283881306</v>
+        <v>0.9351658083111151</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -10289,19 +10289,19 @@
         <v>58093</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51664</v>
+        <v>52010</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63341</v>
+        <v>62872</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7791552339232205</v>
+        <v>0.7791552339232206</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6929301961591349</v>
+        <v>0.6975638457721214</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8495387605617822</v>
+        <v>0.8432524274080699</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>252</v>
@@ -10310,19 +10310,19 @@
         <v>164732</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>156099</v>
+        <v>156336</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>172420</v>
+        <v>172307</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8500787813899772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.805531729383139</v>
+        <v>0.8067526639737397</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8897526765548822</v>
+        <v>0.8891727852877602</v>
       </c>
     </row>
     <row r="5">
@@ -10339,19 +10339,19 @@
         <v>7009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3839</v>
+        <v>3615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12894</v>
+        <v>12114</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0587848815700389</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03219989992037125</v>
+        <v>0.03032160793330256</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1081480034257737</v>
+        <v>0.1016082601255574</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -10360,19 +10360,19 @@
         <v>8207</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4770</v>
+        <v>5231</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12675</v>
+        <v>12931</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1100745320878726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06397391212160557</v>
+        <v>0.07016037490594297</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1700046912758525</v>
+        <v>0.1734381147907658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -10381,19 +10381,19 @@
         <v>15216</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10204</v>
+        <v>10083</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21515</v>
+        <v>21888</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07851875308979557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05265900662603731</v>
+        <v>0.05203448790267846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1110275322157552</v>
+        <v>0.1129513604263142</v>
       </c>
     </row>
     <row r="6">
@@ -10410,19 +10410,19 @@
         <v>2962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6406</v>
+        <v>6175</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02484182091433995</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009704236265859872</v>
+        <v>0.009581885839746271</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05373070470830488</v>
+        <v>0.05179176975445129</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -10431,19 +10431,19 @@
         <v>2330</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5422</v>
+        <v>5350</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03124477956713998</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008035839778264969</v>
+        <v>0.008549003808218616</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.072719958057858</v>
+        <v>0.07175296345295097</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -10452,19 +10452,19 @@
         <v>5291</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2303</v>
+        <v>2473</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9373</v>
+        <v>9510</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02730538153768122</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01188373720053502</v>
+        <v>0.01276226685330554</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04837083494139862</v>
+        <v>0.04907290817380474</v>
       </c>
     </row>
     <row r="7">
@@ -10481,19 +10481,19 @@
         <v>2004</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5100</v>
+        <v>5476</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01680622358773708</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003866615682298787</v>
+        <v>0.003779656509503735</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0427728747560106</v>
+        <v>0.04592832862708221</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -10502,19 +10502,19 @@
         <v>4869</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1932</v>
+        <v>1767</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10755</v>
+        <v>10487</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06529807614517041</v>
+        <v>0.06529807614517043</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0259067644072793</v>
+        <v>0.02369624054939133</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1442444001465522</v>
+        <v>0.1406504611616693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -10523,19 +10523,19 @@
         <v>6872</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3473</v>
+        <v>3456</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13271</v>
+        <v>13459</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03546363260616358</v>
+        <v>0.03546363260616359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01791976945652435</v>
+        <v>0.01783658495324379</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06848150015315063</v>
+        <v>0.06945279923157542</v>
       </c>
     </row>
     <row r="8">
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3081</v>
+        <v>3404</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005135206736424239</v>
@@ -10564,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02583978007936262</v>
+        <v>0.02855334160644134</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3407</v>
+        <v>3941</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0142273782765966</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04569287991854446</v>
+        <v>0.05286244210029428</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -10594,19 +10594,19 @@
         <v>1673</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4876</v>
+        <v>4527</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008633451376382606</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002106968307500994</v>
+        <v>0.002078091131092667</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02516043164942692</v>
+        <v>0.02336054345562287</v>
       </c>
     </row>
     <row r="9">
@@ -10698,19 +10698,19 @@
         <v>86626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79524</v>
+        <v>79793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92100</v>
+        <v>92854</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8272538588859681</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7594330982483865</v>
+        <v>0.7619996469378789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8795291742571874</v>
+        <v>0.8867326987951096</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -10719,19 +10719,19 @@
         <v>39224</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33413</v>
+        <v>33569</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44189</v>
+        <v>43800</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7082045880112421</v>
+        <v>0.7082045880112422</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6032931751643583</v>
+        <v>0.6061087074211819</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7978438021889368</v>
+        <v>0.7908262461095618</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>191</v>
@@ -10740,19 +10740,19 @@
         <v>125850</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117011</v>
+        <v>115906</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133389</v>
+        <v>133480</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7860701061174727</v>
+        <v>0.7860701061174729</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7308605531593542</v>
+        <v>0.7239571853792769</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8331582419221565</v>
+        <v>0.8337283808763581</v>
       </c>
     </row>
     <row r="11">
@@ -10769,19 +10769,19 @@
         <v>7029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3471</v>
+        <v>3746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11892</v>
+        <v>12282</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06712968582298377</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03314744250747536</v>
+        <v>0.03577744840140867</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1135614315260205</v>
+        <v>0.1172917999246335</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -10790,19 +10790,19 @@
         <v>8108</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4582</v>
+        <v>4397</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12825</v>
+        <v>12338</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1464020809816021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08272573732209763</v>
+        <v>0.07938224280468667</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2315566964428434</v>
+        <v>0.2227673850499263</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -10811,19 +10811,19 @@
         <v>15138</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10122</v>
+        <v>10031</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21507</v>
+        <v>22702</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09455307699195985</v>
+        <v>0.09455307699195988</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0632219105762129</v>
+        <v>0.06265724181772539</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1343371091076659</v>
+        <v>0.1417985803495164</v>
       </c>
     </row>
     <row r="12">
@@ -10840,19 +10840,19 @@
         <v>6452</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3101</v>
+        <v>2977</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12300</v>
+        <v>12402</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06161766558138812</v>
+        <v>0.06161766558138813</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02961585858461104</v>
+        <v>0.0284278264560291</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1174593090902733</v>
+        <v>0.1184375855274499</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -10861,19 +10861,19 @@
         <v>3295</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1355</v>
+        <v>1152</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7351</v>
+        <v>7343</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05949180470678291</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02446627261210321</v>
+        <v>0.02080675240464456</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.132723750446167</v>
+        <v>0.1325803888933264</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -10882,19 +10882,19 @@
         <v>9747</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5744</v>
+        <v>5516</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15517</v>
+        <v>16146</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.06088224798465131</v>
+        <v>0.06088224798465132</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03587605691390606</v>
+        <v>0.03445530581113181</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09691871385724558</v>
+        <v>0.10084853752666</v>
       </c>
     </row>
     <row r="13">
@@ -10911,19 +10911,19 @@
         <v>2600</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6441</v>
+        <v>6119</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02483366377040286</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0065675730002511</v>
+        <v>0.006737963104116031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06150867231110194</v>
+        <v>0.05843715220842537</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -10932,19 +10932,19 @@
         <v>3122</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1198</v>
+        <v>1147</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6765</v>
+        <v>6731</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0563634436737884</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02162810538448219</v>
+        <v>0.0207095651506303</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1221487113520537</v>
+        <v>0.121530840146744</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -10953,19 +10953,19 @@
         <v>5722</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2543</v>
+        <v>2602</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10178</v>
+        <v>10620</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03574103557406987</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01588421904108007</v>
+        <v>0.01625443723343365</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06356971394786706</v>
+        <v>0.06633228857612596</v>
       </c>
     </row>
     <row r="14">
@@ -10982,19 +10982,19 @@
         <v>2007</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5677</v>
+        <v>5760</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01916512593925709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004636514110567533</v>
+        <v>0.004603125498746128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05421281727012572</v>
+        <v>0.05501036393072264</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -11003,19 +11003,19 @@
         <v>1636</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4738</v>
+        <v>4548</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02953808262658445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007232889905219047</v>
+        <v>0.00717301602668601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08554817244249024</v>
+        <v>0.08211878492622461</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -11024,19 +11024,19 @@
         <v>3643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1309</v>
+        <v>1377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7770</v>
+        <v>7681</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02275353333184612</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008178444216657746</v>
+        <v>0.008599416654608999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04853437991548844</v>
+        <v>0.04797762237796955</v>
       </c>
     </row>
     <row r="15">
@@ -11128,19 +11128,19 @@
         <v>90782</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83250</v>
+        <v>82765</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96746</v>
+        <v>96767</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8113930920423664</v>
+        <v>0.8113930920423662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7440737845375488</v>
+        <v>0.7397366307304859</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8646970211314622</v>
+        <v>0.8648855602976628</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -11149,19 +11149,19 @@
         <v>32653</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26824</v>
+        <v>26775</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38140</v>
+        <v>38344</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.57351495380277</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4711505551745984</v>
+        <v>0.4702775309087964</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6698930550206744</v>
+        <v>0.6734873994648302</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>190</v>
@@ -11170,19 +11170,19 @@
         <v>123434</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113409</v>
+        <v>113125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132247</v>
+        <v>131528</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7311687268230622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6717847231493004</v>
+        <v>0.67009867673101</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7833716730173417</v>
+        <v>0.7791136707516428</v>
       </c>
     </row>
     <row r="17">
@@ -11199,19 +11199,19 @@
         <v>6074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2742</v>
+        <v>3205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10538</v>
+        <v>11431</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05429255461539505</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02450802261715687</v>
+        <v>0.02864643596846899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09418739722920501</v>
+        <v>0.1021722706751942</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -11220,19 +11220,19 @@
         <v>7558</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4559</v>
+        <v>4258</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11908</v>
+        <v>12383</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1327550353981969</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08006887500070785</v>
+        <v>0.07478964612349417</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2091601777019547</v>
+        <v>0.2174966471294748</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -11241,19 +11241,19 @@
         <v>13633</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9146</v>
+        <v>9085</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20199</v>
+        <v>20289</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08075401408752218</v>
+        <v>0.08075401408752216</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05417579355585592</v>
+        <v>0.05381281014937984</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1196496072951574</v>
+        <v>0.1201855455557964</v>
       </c>
     </row>
     <row r="18">
@@ -11270,19 +11270,19 @@
         <v>5506</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2706</v>
+        <v>2801</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10143</v>
+        <v>9464</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04921187839268763</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02418157067821814</v>
+        <v>0.02503403910039294</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09065594475903231</v>
+        <v>0.08458668717111549</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -11291,19 +11291,19 @@
         <v>6237</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2794</v>
+        <v>3217</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11219</v>
+        <v>10946</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1095506251882489</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04906727927671149</v>
+        <v>0.05650435256234528</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1970552405049928</v>
+        <v>0.1922606306806357</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -11312,19 +11312,19 @@
         <v>11743</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7388</v>
+        <v>7568</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17760</v>
+        <v>18091</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06956111138914998</v>
+        <v>0.06956111138915</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04376577260594323</v>
+        <v>0.0448310553499093</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1052049339972846</v>
+        <v>0.1071622465831218</v>
       </c>
     </row>
     <row r="19">
@@ -11341,19 +11341,19 @@
         <v>6561</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3230</v>
+        <v>3130</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11450</v>
+        <v>11930</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05864209171558422</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0288703887834806</v>
+        <v>0.02797757592113988</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.102341205476929</v>
+        <v>0.1066283314221684</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -11362,19 +11362,19 @@
         <v>8489</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5173</v>
+        <v>4938</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13492</v>
+        <v>13792</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.149103526482646</v>
+        <v>0.1491035264826461</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09085471350339934</v>
+        <v>0.0867402456432327</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.236973177919355</v>
+        <v>0.2422373021410088</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -11383,19 +11383,19 @@
         <v>15050</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10177</v>
+        <v>10295</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21740</v>
+        <v>22103</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0891501965575071</v>
+        <v>0.08915019655750711</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06028138131103361</v>
+        <v>0.06098184334551845</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1287761363407139</v>
+        <v>0.1309304457498064</v>
       </c>
     </row>
     <row r="20">
@@ -11412,19 +11412,19 @@
         <v>2960</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6991</v>
+        <v>7266</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02646038323396676</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008727069966505095</v>
+        <v>0.008717834162043419</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06248739415079275</v>
+        <v>0.06494170564577088</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -11433,19 +11433,19 @@
         <v>1997</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4881</v>
+        <v>5531</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03507585912813811</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008735755354789139</v>
+        <v>0.008623635879479025</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08573592946330094</v>
+        <v>0.09715429127294967</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -11454,19 +11454,19 @@
         <v>4958</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2306</v>
+        <v>2489</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9286</v>
+        <v>9526</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02936595114275857</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01365769522900045</v>
+        <v>0.01474380594626079</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0550037355028437</v>
+        <v>0.05642939910741771</v>
       </c>
     </row>
     <row r="21">
@@ -11558,19 +11558,19 @@
         <v>172992</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>159670</v>
+        <v>160237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185126</v>
+        <v>185191</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6722719719899749</v>
+        <v>0.6722719719899748</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6204998614967187</v>
+        <v>0.6227070250638681</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7194264332892452</v>
+        <v>0.7196810795002923</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -11579,19 +11579,19 @@
         <v>89164</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81754</v>
+        <v>81172</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>96354</v>
+        <v>96330</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6812663922803528</v>
+        <v>0.6812663922803527</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.62464700334301</v>
+        <v>0.6202024009085718</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7362011107620201</v>
+        <v>0.7360140594167789</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>421</v>
@@ -11600,19 +11600,19 @@
         <v>262156</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>247008</v>
+        <v>248268</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>276621</v>
+        <v>277716</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6753043670241883</v>
+        <v>0.6753043670241882</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6362846659044669</v>
+        <v>0.6395308262505938</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7125667086403613</v>
+        <v>0.7153869679992854</v>
       </c>
     </row>
     <row r="23">
@@ -11629,19 +11629,19 @@
         <v>29235</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22194</v>
+        <v>21514</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>39673</v>
+        <v>40031</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1136115726955706</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08624943649034948</v>
+        <v>0.08360690914316021</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1541750992089247</v>
+        <v>0.1555650826845942</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>32</v>
@@ -11650,19 +11650,19 @@
         <v>16782</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11850</v>
+        <v>11736</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22822</v>
+        <v>23137</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1282262165917216</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0905386433169704</v>
+        <v>0.0896664031058059</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1743709655333349</v>
+        <v>0.1767837409980231</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>73</v>
@@ -11671,19 +11671,19 @@
         <v>46017</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>36119</v>
+        <v>36437</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>57215</v>
+        <v>56087</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1185387800248626</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09304206027659891</v>
+        <v>0.09386021402326297</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1473838326519169</v>
+        <v>0.1444776637889017</v>
       </c>
     </row>
     <row r="24">
@@ -11700,19 +11700,19 @@
         <v>11971</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7352</v>
+        <v>6923</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18117</v>
+        <v>18230</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04652030148291605</v>
+        <v>0.04652030148291603</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02857232969488198</v>
+        <v>0.02690237823191667</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07040634359858397</v>
+        <v>0.07084262495082108</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -11721,19 +11721,19 @@
         <v>8667</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5025</v>
+        <v>5258</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12896</v>
+        <v>13348</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06622447006033477</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03839620795831623</v>
+        <v>0.04017765532207753</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09853068547789859</v>
+        <v>0.1019841789222021</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>36</v>
@@ -11742,19 +11742,19 @@
         <v>20638</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14489</v>
+        <v>14553</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28274</v>
+        <v>27776</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05316340031735519</v>
+        <v>0.05316340031735518</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0373223790853685</v>
+        <v>0.03748872836066101</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07283366800399849</v>
+        <v>0.07154997629912487</v>
       </c>
     </row>
     <row r="25">
@@ -11771,19 +11771,19 @@
         <v>27969</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20199</v>
+        <v>20754</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36974</v>
+        <v>37513</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1086905818008204</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07849789717305491</v>
+        <v>0.08065325057851533</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1436852940844017</v>
+        <v>0.1457814229096609</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -11792,19 +11792,19 @@
         <v>11380</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7590</v>
+        <v>7695</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16836</v>
+        <v>16656</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08695131645096582</v>
+        <v>0.08695131645096581</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05799193159884678</v>
+        <v>0.05879419375165255</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1286364865069385</v>
+        <v>0.1272617893532479</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -11813,19 +11813,19 @@
         <v>39349</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30796</v>
+        <v>30333</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50587</v>
+        <v>48824</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.101361366780163</v>
+        <v>0.1013613667801631</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07932824396078229</v>
+        <v>0.07813667059549285</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1303104562946799</v>
+        <v>0.1257696296134478</v>
       </c>
     </row>
     <row r="26">
@@ -11842,19 +11842,19 @@
         <v>15158</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9496</v>
+        <v>9926</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21542</v>
+        <v>22409</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0589055720307182</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03690248857891569</v>
+        <v>0.03857562535128924</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08371664696567109</v>
+        <v>0.08708472435215715</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -11863,19 +11863,19 @@
         <v>4886</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2574</v>
+        <v>2380</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8463</v>
+        <v>8468</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03733160461662492</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01967035838967236</v>
+        <v>0.0181883952397134</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06466200728778428</v>
+        <v>0.06469900065422914</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -11884,19 +11884,19 @@
         <v>20044</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13771</v>
+        <v>14187</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27777</v>
+        <v>28696</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05163208585343104</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03547314070526208</v>
+        <v>0.03654496578807098</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07155338914181053</v>
+        <v>0.07392051245320423</v>
       </c>
     </row>
     <row r="27">
@@ -11988,19 +11988,19 @@
         <v>64758</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>56744</v>
+        <v>56978</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>72907</v>
+        <v>72191</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6537655372335849</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5728594002801668</v>
+        <v>0.575223335482794</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7360377501065406</v>
+        <v>0.7288049550681122</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>222</v>
@@ -12009,19 +12009,19 @@
         <v>112162</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>102324</v>
+        <v>101906</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>123107</v>
+        <v>122424</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5138607792111146</v>
+        <v>0.5138607792111145</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4687882268326579</v>
+        <v>0.4668736493835033</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5640037049886302</v>
+        <v>0.5608717730205862</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>311</v>
@@ -12030,19 +12030,19 @@
         <v>176920</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>164694</v>
+        <v>164507</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>190115</v>
+        <v>190098</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5575320125728352</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5190031026607403</v>
+        <v>0.5184149441323995</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5991130245704411</v>
+        <v>0.5990595417490946</v>
       </c>
     </row>
     <row r="29">
@@ -12059,19 +12059,19 @@
         <v>12571</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7819</v>
+        <v>7776</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19062</v>
+        <v>18973</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1269099401802736</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07894145922539167</v>
+        <v>0.07850670049006357</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1924394457673309</v>
+        <v>0.1915453277306002</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -12080,19 +12080,19 @@
         <v>31134</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23995</v>
+        <v>24643</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38443</v>
+        <v>39331</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1426350051901462</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.109930911973911</v>
+        <v>0.1128975264801245</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1761241121356728</v>
+        <v>0.1801899380898172</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>78</v>
@@ -12101,19 +12101,19 @@
         <v>43704</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>34797</v>
+        <v>34542</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54011</v>
+        <v>53070</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1377264302897552</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1096557313896472</v>
+        <v>0.1088524007192923</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1702075471235491</v>
+        <v>0.1672407359639523</v>
       </c>
     </row>
     <row r="30">
@@ -12130,19 +12130,19 @@
         <v>7609</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4106</v>
+        <v>4300</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12686</v>
+        <v>12445</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07681723524045773</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04145298555761253</v>
+        <v>0.04341496797642922</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1280677456224385</v>
+        <v>0.1256386893403253</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>45</v>
@@ -12151,19 +12151,19 @@
         <v>24291</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17650</v>
+        <v>18163</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31077</v>
+        <v>32179</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1112879259843834</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08085949783548517</v>
+        <v>0.08321410584538841</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1423748032886802</v>
+        <v>0.1474261223125308</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>59</v>
@@ -12172,19 +12172,19 @@
         <v>31900</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24584</v>
+        <v>24474</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39727</v>
+        <v>40472</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1005279089492522</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07747065734450276</v>
+        <v>0.07712599727873158</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1251912929389507</v>
+        <v>0.1275404271859853</v>
       </c>
     </row>
     <row r="31">
@@ -12201,19 +12201,19 @@
         <v>10558</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6655</v>
+        <v>6566</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16942</v>
+        <v>17330</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.106592414343418</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06718945549315884</v>
+        <v>0.06628447383207779</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1710398128685405</v>
+        <v>0.1749588956648584</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>65</v>
@@ -12222,19 +12222,19 @@
         <v>28291</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21620</v>
+        <v>21529</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>35111</v>
+        <v>35795</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.129610628665793</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0990505125316849</v>
+        <v>0.09863481473593796</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1608580906719763</v>
+        <v>0.1639921838158019</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>83</v>
@@ -12243,19 +12243,19 @@
         <v>38849</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>31249</v>
+        <v>30685</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48589</v>
+        <v>47275</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1224254991287325</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09847596672877504</v>
+        <v>0.09669906764585208</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1531185639155055</v>
+        <v>0.1489788527786436</v>
       </c>
     </row>
     <row r="32">
@@ -12272,19 +12272,19 @@
         <v>3558</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1429</v>
+        <v>1529</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7221</v>
+        <v>7003</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03591487300226567</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01442858909469899</v>
+        <v>0.01543753577366194</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07290372543971685</v>
+        <v>0.07069944975054429</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>47</v>
@@ -12293,19 +12293,19 @@
         <v>22396</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16874</v>
+        <v>16720</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29832</v>
+        <v>29847</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1026056609485629</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07730772510396565</v>
+        <v>0.07660002750259705</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1366731850611368</v>
+        <v>0.1367417936578511</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -12314,19 +12314,19 @@
         <v>25954</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19766</v>
+        <v>19479</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>33368</v>
+        <v>33610</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08178814905942472</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06229058056263314</v>
+        <v>0.06138353371746025</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1051544948904927</v>
+        <v>0.1059166825409774</v>
       </c>
     </row>
     <row r="33">
@@ -12421,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2707</v>
+        <v>2656</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3272543908470275</v>
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8263712328659629</v>
+        <v>0.8107743771354606</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>348</v>
@@ -12439,19 +12439,19 @@
         <v>185385</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>171998</v>
+        <v>171367</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>200283</v>
+        <v>198773</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5394368768032437</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5004838411460815</v>
+        <v>0.4986462587857538</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5827862198125806</v>
+        <v>0.5783929759959694</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>350</v>
@@ -12460,19 +12460,19 @@
         <v>186458</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>174256</v>
+        <v>172420</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>200564</v>
+        <v>199848</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5374332385905148</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5022638867033798</v>
+        <v>0.4969727625352533</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5780918638984128</v>
+        <v>0.5760285652706145</v>
       </c>
     </row>
     <row r="35">
@@ -12502,19 +12502,19 @@
         <v>40908</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>33636</v>
+        <v>32410</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>50834</v>
+        <v>50272</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1190352621204569</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0978749861019171</v>
+        <v>0.09430610498845027</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1479180465108913</v>
+        <v>0.1462816717835054</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>75</v>
@@ -12523,19 +12523,19 @@
         <v>40908</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>31509</v>
+        <v>33409</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>49705</v>
+        <v>51497</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.117911212702467</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09081819897846956</v>
+        <v>0.0962971045999764</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1432674567253616</v>
+        <v>0.1484329226316824</v>
       </c>
     </row>
     <row r="36">
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2120</v>
+        <v>2194</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1548825580621113</v>
@@ -12564,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6470824799284145</v>
+        <v>0.6698133178189635</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>76</v>
@@ -12573,19 +12573,19 @@
         <v>40679</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>32718</v>
+        <v>32952</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>49315</v>
+        <v>50172</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1183675812767216</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09520257736583725</v>
+        <v>0.09588445243325169</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1434968662358206</v>
+        <v>0.145991622961875</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>77</v>
@@ -12594,19 +12594,19 @@
         <v>41186</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>32754</v>
+        <v>33185</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>50878</v>
+        <v>50537</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1187123920300427</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09440693705450884</v>
+        <v>0.09564967479239378</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1466483812659862</v>
+        <v>0.14566541956054</v>
       </c>
     </row>
     <row r="37">
@@ -12623,19 +12623,19 @@
         <v>1697</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>2805</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.5178630510908611</v>
+        <v>0.5178630510908612</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1572770563140626</v>
+        <v>0.1576230310990432</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8563266189270851</v>
+        <v>0.8561784196649472</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>62</v>
@@ -12644,19 +12644,19 @@
         <v>35182</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>27655</v>
+        <v>27620</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>44510</v>
+        <v>45107</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1023733930373979</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08047003391422894</v>
+        <v>0.08036777676586317</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1295148530360377</v>
+        <v>0.1312538444997899</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>65</v>
@@ -12665,19 +12665,19 @@
         <v>36879</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>29528</v>
+        <v>29065</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>47008</v>
+        <v>46109</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.106296859916004</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08510866681372285</v>
+        <v>0.08377573170652207</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1354939484889943</v>
+        <v>0.1329020743539759</v>
       </c>
     </row>
     <row r="38">
@@ -12707,19 +12707,19 @@
         <v>41510</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>33142</v>
+        <v>33088</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>52644</v>
+        <v>51648</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1207868867621799</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0964381842624548</v>
+        <v>0.09627972165576719</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1531852451788</v>
+        <v>0.1502861275489265</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>72</v>
@@ -12728,19 +12728,19 @@
         <v>41510</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>33037</v>
+        <v>32694</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>52101</v>
+        <v>51999</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1196462967609713</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09522355438490739</v>
+        <v>0.09423387115023175</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1501727936378577</v>
+        <v>0.1498781374385938</v>
       </c>
     </row>
     <row r="39">
@@ -12832,19 +12832,19 @@
         <v>522868</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>503548</v>
+        <v>503585</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>542981</v>
+        <v>539579</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.7518113649083336</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.7240309250223518</v>
+        <v>0.7240849080388528</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.7807306564635166</v>
+        <v>0.7758391454662618</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>981</v>
@@ -12853,19 +12853,19 @@
         <v>516681</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>496336</v>
+        <v>493894</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>537804</v>
+        <v>536926</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5873404618561029</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5642131387697483</v>
+        <v>0.5614375587175052</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6113520212792115</v>
+        <v>0.6103536594280426</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1715</v>
@@ -12874,19 +12874,19 @@
         <v>1039549</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1008386</v>
+        <v>1012962</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1069455</v>
+        <v>1070950</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6599584422949352</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6401744398530937</v>
+        <v>0.6430797236154286</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6789441226235163</v>
+        <v>0.6798934261821008</v>
       </c>
     </row>
     <row r="41">
@@ -12903,19 +12903,19 @@
         <v>61918</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>50413</v>
+        <v>49574</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>75603</v>
+        <v>74762</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.08903010501477225</v>
+        <v>0.08903010501477227</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07248753878842931</v>
+        <v>0.07128050831675387</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1087065246198515</v>
+        <v>0.1074974779839235</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>211</v>
@@ -12924,19 +12924,19 @@
         <v>112698</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>99217</v>
+        <v>98851</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>127482</v>
+        <v>128969</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1281098050069302</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1127855984652079</v>
+        <v>0.1123700093903573</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1449164542404051</v>
+        <v>0.1466061655921175</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>300</v>
@@ -12945,19 +12945,19 @@
         <v>174616</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>157261</v>
+        <v>156814</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>194045</v>
+        <v>195215</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1108551487916315</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09983738443370753</v>
+        <v>0.09955318480422438</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1231898248224801</v>
+        <v>0.1239320481859825</v>
       </c>
     </row>
     <row r="42">
@@ -12974,19 +12974,19 @@
         <v>35007</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>26756</v>
+        <v>26876</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>45453</v>
+        <v>44667</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.05033564745140653</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03847077724935321</v>
+        <v>0.03864415220101548</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.06535575004496837</v>
+        <v>0.06422463744572715</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>158</v>
@@ -12995,19 +12995,19 @@
         <v>85499</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>73722</v>
+        <v>74094</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>101196</v>
+        <v>99286</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09719163814377699</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08380434196402586</v>
+        <v>0.08422689985347336</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1150354637153464</v>
+        <v>0.1128639874800378</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>216</v>
@@ -13016,19 +13016,19 @@
         <v>120506</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>104161</v>
+        <v>105364</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>136921</v>
+        <v>136078</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.07650355683336968</v>
+        <v>0.07650355683336967</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06612660000344489</v>
+        <v>0.06689015306131982</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08692449181230097</v>
+        <v>0.08638893514946393</v>
       </c>
     </row>
     <row r="43">
@@ -13045,19 +13045,19 @@
         <v>51389</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>40511</v>
+        <v>40582</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>63799</v>
+        <v>64664</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.07389015025232518</v>
+        <v>0.0738901502523252</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0582487382880413</v>
+        <v>0.05835182359971496</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09173408297717081</v>
+        <v>0.09297728715411262</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>176</v>
@@ -13066,19 +13066,19 @@
         <v>91332</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>78033</v>
+        <v>78304</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>105907</v>
+        <v>105476</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1038224168450564</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08870407415857932</v>
+        <v>0.08901234734985954</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1203902589084267</v>
+        <v>0.1199009782354028</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>254</v>
@@ -13087,19 +13087,19 @@
         <v>142721</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>125683</v>
+        <v>126712</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>161573</v>
+        <v>161552</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.09060657921309181</v>
+        <v>0.0906065792130918</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.07979002439667117</v>
+        <v>0.08044324817111922</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.102574854972096</v>
+        <v>0.10256137068504</v>
       </c>
     </row>
     <row r="44">
@@ -13116,19 +13116,19 @@
         <v>24295</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>17117</v>
+        <v>17672</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>33579</v>
+        <v>33060</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.03493273237316239</v>
+        <v>0.0349327323731624</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02461180683970313</v>
+        <v>0.02540989804176672</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04828141191208955</v>
+        <v>0.0475358940272779</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>139</v>
@@ -13137,19 +13137,19 @@
         <v>73486</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>61574</v>
+        <v>61580</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>86821</v>
+        <v>87579</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.08353567814813359</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.06999455568406698</v>
+        <v>0.07000118616832096</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09869408233523637</v>
+        <v>0.09955601538129188</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>178</v>
@@ -13158,19 +13158,19 @@
         <v>97781</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>83897</v>
+        <v>83915</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>113982</v>
+        <v>113550</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.0620762728669718</v>
+        <v>0.06207627286697181</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05326209455510807</v>
+        <v>0.05327363964144618</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0723613196310649</v>
+        <v>0.07208700836322314</v>
       </c>
     </row>
     <row r="45">
